--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\PROJETOS\APP\Códigos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDBDADF-C70B-499A-B072-5DCC8868F661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCB820C-235E-4496-B7E2-94F8A907D0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="212">
   <si>
     <t>Complemento</t>
   </si>
@@ -518,18 +518,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>FITA CETIM - ROSA</t>
-  </si>
-  <si>
-    <t>S150203</t>
-  </si>
-  <si>
-    <t>FITA CETIM - AMARELO</t>
-  </si>
-  <si>
-    <t>FITA CETIM - AZUL</t>
-  </si>
-  <si>
     <t>FITA DUPLA FACE - UNICA</t>
   </si>
   <si>
@@ -626,9 +614,6 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>VASSOURA DE PELO SINTETICO</t>
-  </si>
-  <si>
     <t>S110036</t>
   </si>
   <si>
@@ -642,6 +627,54 @@
   </si>
   <si>
     <t>S010050</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
+  </si>
+  <si>
+    <t>S050008</t>
+  </si>
+  <si>
+    <t>UM.</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>PC C/10</t>
+  </si>
+  <si>
+    <t>PC C/8</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PC C/100</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>VASSOURA DE PELO SINTETICO - PLASTICO</t>
+  </si>
+  <si>
+    <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHA</t>
+  </si>
+  <si>
+    <t>EXTRATOR DE GRAMPOS - UNICA</t>
+  </si>
+  <si>
+    <t>S020048</t>
+  </si>
+  <si>
+    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>S020008</t>
   </si>
 </sst>
 </file>
@@ -724,7 +757,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -738,12 +771,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -760,15 +823,6 @@
         <top/>
         <bottom style="thin">
           <color rgb="FF00B0F0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1084,1209 +1138,1552 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection sqref="A1:C106"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D102" sqref="D1:D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>809</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>1046</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>1045</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D22" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D23" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D24" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D25" s="4">
         <v>904</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D27" s="4">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="4">
+      <c r="D28" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D29" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D30" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D31" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="4">
+      <c r="D33" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D34" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D37" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D38" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B39" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D39" s="4">
         <v>899</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="4">
+      <c r="D40" s="4">
         <v>896</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="4">
+      <c r="D41" s="4">
         <v>900</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B42" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D42" s="4">
         <v>898</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B44" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="4">
+      <c r="D44" s="4">
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B45" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D45" s="4">
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C44" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C46" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D48" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="4">
+      <c r="D49" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="4">
+      <c r="D50" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="4">
+      <c r="D51" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="4">
+      <c r="D52" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="4">
+      <c r="D53" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="4">
+      <c r="D54" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="4">
+      <c r="D55" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="4">
+      <c r="D56" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="4">
+      <c r="D57" s="4">
         <v>910</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="4">
+      <c r="D58" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="4">
+      <c r="D59" s="4">
         <v>745</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="4">
+      <c r="D60" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="4">
+      <c r="D61" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="4">
+      <c r="D62" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C64" s="4">
+      <c r="D64" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="4">
+      <c r="D65" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C68" s="4">
+      <c r="D68" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="4">
+      <c r="D69" s="4">
         <v>211</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="4">
+      <c r="D71" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C73" s="4">
+      <c r="D73" s="4">
         <v>820</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="4">
+      <c r="D74" s="4">
         <v>819</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="4">
+      <c r="D76" s="4">
         <v>553</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C77" s="4">
+      <c r="D77" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="4">
+      <c r="D78" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="4">
+      <c r="D79" s="4">
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C81" s="4">
+      <c r="D81" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="4">
+      <c r="D82" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="4">
+      <c r="D83" s="4">
         <v>994</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="4">
+      <c r="D84" s="4">
         <v>695</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C86" s="4">
+      <c r="D86" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C88" s="4">
+      <c r="D88" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C89" s="4">
+      <c r="D89" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C90" s="4">
+      <c r="D90" s="4">
         <v>107</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C91" s="4">
+      <c r="D91" s="4">
         <v>918</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C92" s="4">
+        <v>203</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D92" s="4">
         <v>747</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C93" s="4">
+        <v>203</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D93" s="4">
         <v>449</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C94" s="4">
+      <c r="D94" s="4">
         <v>170</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C95" s="4">
+      <c r="D95" s="4">
         <v>163</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C96" s="4">
+      <c r="D96" s="4">
         <v>799</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C97" s="4">
+      <c r="D97" s="4">
         <v>1127</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C98" s="4">
+      <c r="D98" s="4">
         <v>569</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C99" s="4">
+      <c r="D99" s="4">
         <v>762</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C100" s="4">
+      <c r="D100" s="4">
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D104" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B105" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+      <c r="D105" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B102" s="4" t="s">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C103" s="4">
+      <c r="D106" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C105" s="4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D107" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C106" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C76" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C106">
+  <autoFilter ref="A1:D107" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D107">
       <sortCondition ref="A1:A76"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A106">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
-      <formula>LEN(TRIM(A106))&gt;0</formula>
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>$D1&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A2:D20 A22:D42 A44:D101 A103:D107">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="7">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C106">
+  <conditionalFormatting sqref="A21:D21">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A21))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:D43">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A43))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102:D102">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A102))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="C6:C106" numberStoredAsText="1"/>
+    <ignoredError sqref="D103:D107 D48:D101 D22:D42 D6:D20 D44:D46 D1:D5 D47 D21 D43 D102" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCB820C-235E-4496-B7E2-94F8A907D0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0C7392-A99E-415C-B519-0ED1813500A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$110</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="217">
   <si>
     <t>Complemento</t>
   </si>
@@ -464,15 +464,6 @@
     <t>122</t>
   </si>
   <si>
-    <t>BAND-AID - 500 UND</t>
-  </si>
-  <si>
-    <t>S150156</t>
-  </si>
-  <si>
-    <t>874</t>
-  </si>
-  <si>
     <t>BOBINA P/ PONTO ELETRONICO - 57X300 (GRANDE)</t>
   </si>
   <si>
@@ -675,6 +666,30 @@
   </si>
   <si>
     <t>S020008</t>
+  </si>
+  <si>
+    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
+  </si>
+  <si>
+    <t>S150189</t>
+  </si>
+  <si>
+    <t>MOP PO REFIL - UNICA</t>
+  </si>
+  <si>
+    <t>S010076</t>
+  </si>
+  <si>
+    <t>MOP UMIDO REFIL - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>S010034</t>
+  </si>
+  <si>
+    <t>KIT MOP UMIDO - UNICA</t>
+  </si>
+  <si>
+    <t>S010086</t>
   </si>
 </sst>
 </file>
@@ -757,7 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -774,30 +789,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -842,9 +842,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -882,7 +882,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -988,7 +988,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1130,7 +1130,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1138,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D102" sqref="D1:D102"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>117</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>118</v>
@@ -1185,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1199,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1213,7 +1213,7 @@
         <v>115</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>116</v>
@@ -1227,7 +1227,7 @@
         <v>132</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>133</v>
@@ -1241,7 +1241,7 @@
         <v>135</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>136</v>
@@ -1255,7 +1255,7 @@
         <v>138</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>139</v>
@@ -1266,195 +1266,195 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>143</v>
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>809</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="4">
-        <v>809</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="4">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4">
-        <v>1045</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D15" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>137</v>
+        <v>20</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D21" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -1462,80 +1462,80 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="D24" s="4">
-        <v>52</v>
+        <v>904</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="4">
-        <v>904</v>
+      <c r="D25" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>149</v>
+        <v>28</v>
+      </c>
+      <c r="D26" s="4">
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="4">
-        <v>109</v>
+        <v>210</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>29</v>
@@ -1549,7 +1549,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>31</v>
@@ -1560,13 +1560,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1577,7 +1577,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>33</v>
@@ -1588,13 +1588,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>137</v>
@@ -1605,7 +1605,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>35</v>
@@ -1619,7 +1619,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>37</v>
@@ -1630,16 +1630,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1647,7 +1647,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>39</v>
@@ -1661,7 +1661,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>41</v>
@@ -1675,7 +1675,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>43</v>
@@ -1689,7 +1689,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>45</v>
@@ -1703,7 +1703,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>45</v>
@@ -1717,7 +1717,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>45</v>
@@ -1731,7 +1731,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>45</v>
@@ -1742,13 +1742,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>137</v>
@@ -1759,7 +1759,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>50</v>
@@ -1773,7 +1773,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>50</v>
@@ -1784,13 +1784,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>137</v>
@@ -1798,13 +1798,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>53</v>
@@ -1829,7 +1829,7 @@
         <v>54</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>55</v>
@@ -1843,7 +1843,7 @@
         <v>56</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>57</v>
@@ -1854,13 +1854,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>59</v>
+        <v>216</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1868,13 +1868,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1882,13 +1882,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1896,41 +1896,41 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="D54" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D55" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D56" s="4">
         <v>103</v>
@@ -1938,209 +1938,209 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D57" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D58" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D59" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D60" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D61" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D62" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>162</v>
+      <c r="D63" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="4">
-        <v>31</v>
+      <c r="D64" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="D65" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>164</v>
+      <c r="D66" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D68" s="4">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D69" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>169</v>
+        <v>212</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -2148,542 +2148,574 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>137</v>
+        <v>79</v>
+      </c>
+      <c r="D72" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" s="4">
-        <v>820</v>
+        <v>165</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D74" s="4">
-        <v>819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D76" s="4">
-        <v>553</v>
+        <v>820</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D77" s="4">
-        <v>72</v>
+        <v>819</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D78" s="4">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D79" s="4">
-        <v>87</v>
+        <v>553</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>176</v>
+        <v>88</v>
+      </c>
+      <c r="D80" s="4">
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D81" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D82" s="4">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D83" s="4">
-        <v>994</v>
+        <v>90</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D84" s="4">
-        <v>695</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>137</v>
+        <v>92</v>
+      </c>
+      <c r="D85" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D86" s="4">
-        <v>1</v>
+        <v>994</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>137</v>
+        <v>94</v>
+      </c>
+      <c r="D87" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D88" s="4">
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D89" s="4">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D90" s="4">
-        <v>107</v>
+        <v>179</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="D91" s="4">
-        <v>918</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="D92" s="4">
-        <v>747</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="D93" s="4">
-        <v>449</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D94" s="4">
-        <v>170</v>
+        <v>918</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="D95" s="4">
-        <v>163</v>
+        <v>747</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="D96" s="4">
-        <v>799</v>
+        <v>449</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D97" s="4">
-        <v>1127</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D98" s="4">
-        <v>569</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D99" s="4">
-        <v>762</v>
+        <v>799</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D100" s="4">
-        <v>211</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>137</v>
+        <v>108</v>
+      </c>
+      <c r="D101" s="4">
+        <v>569</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>137</v>
+        <v>108</v>
+      </c>
+      <c r="D102" s="4">
+        <v>762</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>134</v>
+        <v>112</v>
+      </c>
+      <c r="D103" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D104" s="4">
-        <v>1</v>
+        <v>182</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D106" s="4">
-        <v>1</v>
+        <v>184</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D110" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D107" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D107">
-      <sortCondition ref="A1:A76"/>
+  <autoFilter ref="A1:D110" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D110">
+      <sortCondition ref="A1:A110"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D20 A22:D42 A44:D101 A103:D107">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="7">
+  <conditionalFormatting sqref="A2:D50 A52:D110">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:D21">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(A21))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:D43">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A43))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A102:D102">
+  <conditionalFormatting sqref="A51:D51">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A102))&gt;0</formula>
+      <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D103:D107 D48:D101 D22:D42 D6:D20 D44:D46 D1:D5 D47 D21 D43 D102" numberStoredAsText="1"/>
+    <ignoredError sqref="D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0C7392-A99E-415C-B519-0ED1813500A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAE62CF-42F0-4FE2-9565-3015A865ED1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -446,12 +446,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>AVENTAL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010007</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -690,6 +684,12 @@
   </si>
   <si>
     <t>S010086</t>
+  </si>
+  <si>
+    <t>AVENTAL C/ MANGA - UNICA</t>
+  </si>
+  <si>
+    <t>S150204</t>
   </si>
 </sst>
 </file>
@@ -1140,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>117</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>118</v>
@@ -1185,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1199,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1213,7 +1213,7 @@
         <v>115</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>116</v>
@@ -1227,7 +1227,7 @@
         <v>132</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>133</v>
@@ -1238,30 +1238,30 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1269,7 +1269,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1280,10 +1280,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1294,10 +1294,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1311,7 +1311,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1325,7 +1325,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>13</v>
@@ -1339,7 +1339,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1353,7 +1353,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -1378,16 +1378,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1395,7 +1395,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1409,7 +1409,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -1420,10 +1420,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -1437,7 +1437,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>23</v>
@@ -1451,7 +1451,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>25</v>
@@ -1465,7 +1465,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>27</v>
@@ -1479,7 +1479,7 @@
         <v>119</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>120</v>
@@ -1490,24 +1490,24 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>28</v>
@@ -1518,13 +1518,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
@@ -1532,10 +1532,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>29</v>
@@ -1549,7 +1549,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>31</v>
@@ -1560,13 +1560,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1577,7 +1577,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>33</v>
@@ -1588,16 +1588,16 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>35</v>
@@ -1619,7 +1619,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>37</v>
@@ -1630,16 +1630,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1647,13 +1647,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1661,7 +1661,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>41</v>
@@ -1675,7 +1675,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>43</v>
@@ -1689,7 +1689,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>45</v>
@@ -1703,7 +1703,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>45</v>
@@ -1717,7 +1717,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>45</v>
@@ -1731,7 +1731,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>45</v>
@@ -1742,16 +1742,16 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>50</v>
@@ -1773,7 +1773,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>50</v>
@@ -1784,27 +1784,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>53</v>
@@ -1829,7 +1829,7 @@
         <v>54</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>55</v>
@@ -1843,7 +1843,7 @@
         <v>56</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>57</v>
@@ -1854,13 +1854,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1871,7 +1871,7 @@
         <v>58</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>59</v>
@@ -1885,7 +1885,7 @@
         <v>121</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>122</v>
@@ -1899,7 +1899,7 @@
         <v>126</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>127</v>
@@ -1913,7 +1913,7 @@
         <v>60</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>61</v>
@@ -1927,7 +1927,7 @@
         <v>62</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>63</v>
@@ -1941,7 +1941,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>65</v>
@@ -1955,7 +1955,7 @@
         <v>66</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>65</v>
@@ -1969,7 +1969,7 @@
         <v>67</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>68</v>
@@ -1983,7 +1983,7 @@
         <v>69</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>70</v>
@@ -1997,7 +1997,7 @@
         <v>71</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>72</v>
@@ -2011,7 +2011,7 @@
         <v>73</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>72</v>
@@ -2025,7 +2025,7 @@
         <v>123</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>124</v>
@@ -2036,16 +2036,16 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2053,7 +2053,7 @@
         <v>125</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>124</v>
@@ -2067,7 +2067,7 @@
         <v>74</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>75</v>
@@ -2078,30 +2078,30 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2109,7 +2109,7 @@
         <v>76</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>77</v>
@@ -2120,13 +2120,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -2134,13 +2134,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -2151,7 +2151,7 @@
         <v>78</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>79</v>
@@ -2162,16 +2162,16 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2179,7 +2179,7 @@
         <v>80</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>81</v>
@@ -2190,16 +2190,16 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2207,7 +2207,7 @@
         <v>82</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>83</v>
@@ -2221,7 +2221,7 @@
         <v>84</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>83</v>
@@ -2232,16 +2232,16 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2249,7 +2249,7 @@
         <v>86</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>87</v>
@@ -2260,10 +2260,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>88</v>
@@ -2277,7 +2277,7 @@
         <v>89</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>90</v>
@@ -2291,7 +2291,7 @@
         <v>91</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>90</v>
@@ -2302,24 +2302,24 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>92</v>
@@ -2330,10 +2330,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>92</v>
@@ -2347,7 +2347,7 @@
         <v>95</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>94</v>
@@ -2361,7 +2361,7 @@
         <v>93</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>94</v>
@@ -2372,16 +2372,16 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2389,7 +2389,7 @@
         <v>96</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>97</v>
@@ -2400,16 +2400,16 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2417,7 +2417,7 @@
         <v>98</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>99</v>
@@ -2431,7 +2431,7 @@
         <v>100</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>101</v>
@@ -2445,7 +2445,7 @@
         <v>102</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>103</v>
@@ -2459,7 +2459,7 @@
         <v>128</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>129</v>
@@ -2470,13 +2470,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D95" s="4">
         <v>747</v>
@@ -2484,13 +2484,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D96" s="4">
         <v>449</v>
@@ -2501,7 +2501,7 @@
         <v>104</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>105</v>
@@ -2515,7 +2515,7 @@
         <v>106</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>105</v>
@@ -2529,7 +2529,7 @@
         <v>107</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>105</v>
@@ -2540,10 +2540,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>108</v>
@@ -2557,7 +2557,7 @@
         <v>109</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>108</v>
@@ -2571,7 +2571,7 @@
         <v>110</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>108</v>
@@ -2585,7 +2585,7 @@
         <v>111</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>112</v>
@@ -2596,41 +2596,41 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>134</v>
@@ -2641,7 +2641,7 @@
         <v>130</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>131</v>
@@ -2652,27 +2652,27 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2683,7 +2683,7 @@
         <v>113</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>114</v>
@@ -2699,18 +2699,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D50 A52:D110">
+  <conditionalFormatting sqref="A2:D6 A8:D110">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:D51">
+  <conditionalFormatting sqref="A7:D7">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A51))&gt;0</formula>
+      <formula>LEN(TRIM(A7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAE62CF-42F0-4FE2-9565-3015A865ED1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA39593B-9D55-4D83-A453-18E91AE137B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="219">
   <si>
     <t>Complemento</t>
   </si>
@@ -690,6 +690,12 @@
   </si>
   <si>
     <t>S150204</t>
+  </si>
+  <si>
+    <t>AGUA SANITÁRIA - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>S010002</t>
   </si>
 </sst>
 </file>
@@ -1138,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,133 +1174,133 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="D2" s="4">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="D3" s="4">
-        <v>105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>134</v>
+        <v>116</v>
+      </c>
+      <c r="D6" s="4">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4">
-        <v>809</v>
+        <v>137</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4">
-        <v>1046</v>
+        <v>809</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>195</v>
@@ -1303,40 +1309,40 @@
         <v>9</v>
       </c>
       <c r="D11" s="4">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4">
-        <v>103</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>195</v>
@@ -1345,68 +1351,68 @@
         <v>13</v>
       </c>
       <c r="D14" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>135</v>
+        <v>18</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2</v>
+        <v>142</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>195</v>
@@ -1415,12 +1421,12 @@
         <v>20</v>
       </c>
       <c r="D19" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>195</v>
@@ -1429,32 +1435,32 @@
         <v>20</v>
       </c>
       <c r="D20" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>194</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -1462,35 +1468,35 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" s="4">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="D24" s="4">
-        <v>904</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>195</v>
@@ -1498,89 +1504,89 @@
       <c r="C25" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>144</v>
+      <c r="D25" s="4">
+        <v>904</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="4">
-        <v>109</v>
+        <v>120</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>207</v>
+        <v>145</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="D27" s="4">
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="4">
-        <v>105</v>
+        <v>208</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D29" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="D30" s="4">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1588,41 +1594,41 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>135</v>
+        <v>33</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -1630,55 +1636,55 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>153</v>
+        <v>37</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -1686,21 +1692,21 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D39" s="4">
-        <v>899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>195</v>
@@ -1709,12 +1715,12 @@
         <v>45</v>
       </c>
       <c r="D40" s="4">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>195</v>
@@ -1723,12 +1729,12 @@
         <v>45</v>
       </c>
       <c r="D41" s="4">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>195</v>
@@ -1737,40 +1743,40 @@
         <v>45</v>
       </c>
       <c r="D42" s="4">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>203</v>
+        <v>48</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>135</v>
+        <v>45</v>
+      </c>
+      <c r="D43" s="4">
+        <v>898</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>49</v>
+        <v>203</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="4">
-        <v>166</v>
+        <v>204</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>195</v>
@@ -1779,46 +1785,46 @@
         <v>50</v>
       </c>
       <c r="D45" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>135</v>
+        <v>50</v>
+      </c>
+      <c r="D46" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1826,27 +1832,27 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D49" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D50" s="4">
         <v>80</v>
@@ -1854,27 +1860,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>213</v>
+        <v>56</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>214</v>
+        <v>57</v>
       </c>
       <c r="D51" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>59</v>
+        <v>214</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1882,13 +1888,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1896,13 +1902,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1910,41 +1916,41 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="D55" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D56" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D57" s="4">
         <v>103</v>
@@ -1952,7 +1958,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>195</v>
@@ -1961,54 +1967,54 @@
         <v>65</v>
       </c>
       <c r="D58" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D59" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D60" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D61" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>195</v>
@@ -2017,26 +2023,26 @@
         <v>72</v>
       </c>
       <c r="D62" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D63" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>194</v>
@@ -2044,13 +2050,13 @@
       <c r="C64" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>157</v>
+      <c r="D64" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>194</v>
@@ -2058,27 +2064,27 @@
       <c r="C65" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D65" s="4">
-        <v>31</v>
+      <c r="D65" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="D66" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>195</v>
@@ -2086,13 +2092,13 @@
       <c r="C67" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>159</v>
+      <c r="D67" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>195</v>
@@ -2101,32 +2107,32 @@
         <v>75</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D69" s="4">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -2134,13 +2140,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -2148,77 +2154,77 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="D72" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>164</v>
+        <v>79</v>
+      </c>
+      <c r="D73" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D74" s="4">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>135</v>
+        <v>81</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D76" s="4">
-        <v>820</v>
+        <v>166</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>198</v>
@@ -2227,68 +2233,68 @@
         <v>83</v>
       </c>
       <c r="D77" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>168</v>
+        <v>83</v>
+      </c>
+      <c r="D78" s="4">
+        <v>819</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D79" s="4">
-        <v>553</v>
+        <v>85</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D80" s="4">
-        <v>72</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D81" s="4">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>195</v>
@@ -2297,12 +2303,12 @@
         <v>90</v>
       </c>
       <c r="D82" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>195</v>
@@ -2310,27 +2316,27 @@
       <c r="C83" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>171</v>
+      <c r="D83" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D84" s="4">
-        <v>55</v>
+        <v>90</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>195</v>
@@ -2339,26 +2345,26 @@
         <v>92</v>
       </c>
       <c r="D85" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D86" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>195</v>
@@ -2367,166 +2373,166 @@
         <v>94</v>
       </c>
       <c r="D87" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>135</v>
+        <v>94</v>
+      </c>
+      <c r="D88" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D89" s="4">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>135</v>
+        <v>97</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D91" s="4">
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D92" s="4">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D93" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D94" s="4">
-        <v>918</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>198</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="D95" s="4">
-        <v>747</v>
+        <v>918</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>198</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D96" s="4">
-        <v>449</v>
+        <v>747</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="D97" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D98" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>195</v>
@@ -2535,26 +2541,26 @@
         <v>105</v>
       </c>
       <c r="D99" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D100" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>200</v>
@@ -2563,12 +2569,12 @@
         <v>108</v>
       </c>
       <c r="D101" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>200</v>
@@ -2577,46 +2583,46 @@
         <v>108</v>
       </c>
       <c r="D102" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D103" s="4">
-        <v>211</v>
+        <v>762</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>135</v>
+        <v>112</v>
+      </c>
+      <c r="D104" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>135</v>
@@ -2624,93 +2630,107 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D107" s="4">
-        <v>1</v>
+        <v>182</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>185</v>
+        <v>131</v>
+      </c>
+      <c r="D108" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D109" s="4">
-        <v>1</v>
+        <v>184</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D111" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D110" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D110">
-      <sortCondition ref="A1:A110"/>
+  <autoFilter ref="A1:D111" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D111">
+      <sortCondition ref="A1:A111"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D6 A8:D110">
+  <conditionalFormatting sqref="A2:D5 A7:D111">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:D7">
+  <conditionalFormatting sqref="A6:D6">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A7))&gt;0</formula>
+      <formula>LEN(TRIM(A6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA39593B-9D55-4D83-A453-18E91AE137B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F18F14-7E4D-4B32-B0C0-93534692FF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$112</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="221">
   <si>
     <t>Complemento</t>
   </si>
@@ -696,6 +696,12 @@
   </si>
   <si>
     <t>S010002</t>
+  </si>
+  <si>
+    <t>TAPETE - UNICA</t>
+  </si>
+  <si>
+    <t>S110059</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:XFD104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2602,41 +2608,41 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>111</v>
+        <v>219</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D104" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>135</v>
+        <v>112</v>
+      </c>
+      <c r="D105" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>135</v>
@@ -2644,93 +2650,107 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D108" s="4">
-        <v>1</v>
+        <v>182</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>185</v>
+        <v>131</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D110" s="4">
-        <v>1</v>
+        <v>184</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D111" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C111" s="4" t="s">
+      <c r="B112" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D112" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D111" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D111">
-      <sortCondition ref="A1:A111"/>
+  <autoFilter ref="A1:D112" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D112">
+      <sortCondition ref="A1:A112"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D5 A7:D111">
+  <conditionalFormatting sqref="A2:D103 A105:D112">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:D6">
+  <conditionalFormatting sqref="A104:D104">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A6))&gt;0</formula>
+      <formula>LEN(TRIM(A104))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F18F14-7E4D-4B32-B0C0-93534692FF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48535BE-733C-434B-9E13-A60726A67875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="220">
   <si>
     <t>Complemento</t>
   </si>
@@ -296,9 +296,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>S010039</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO - 300MT</t>
   </si>
   <si>
@@ -542,12 +539,6 @@
     <t>S010038</t>
   </si>
   <si>
-    <t>PAPEL FILME PVC - 300 M</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
     <t>PAPEL TOALHA INTERFOLHADO - 1000 FLS</t>
   </si>
   <si>
@@ -702,6 +693,12 @@
   </si>
   <si>
     <t>S110059</t>
+  </si>
+  <si>
+    <t>FILME PVC PLASTICO - 300 M</t>
+  </si>
+  <si>
+    <t>S050019</t>
   </si>
 </sst>
 </file>
@@ -1152,9 +1149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:XFD104"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1169,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1180,13 +1175,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1194,13 +1189,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -1211,7 +1206,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -1225,7 +1220,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1236,13 +1231,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D6" s="4">
         <v>53</v>
@@ -1250,44 +1245,44 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1295,7 +1290,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
@@ -1306,10 +1301,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1320,10 +1315,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1337,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1351,7 +1346,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1365,7 +1360,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1379,7 +1374,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
@@ -1393,7 +1388,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1404,16 +1399,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1421,7 +1416,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -1435,7 +1430,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -1446,10 +1441,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1463,7 +1458,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>23</v>
@@ -1477,7 +1472,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>25</v>
@@ -1491,7 +1486,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1502,13 +1497,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D25" s="4">
         <v>904</v>
@@ -1516,24 +1511,24 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>28</v>
@@ -1544,13 +1539,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -1558,10 +1553,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>29</v>
@@ -1575,7 +1570,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>31</v>
@@ -1586,13 +1581,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1603,7 +1598,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>33</v>
@@ -1614,16 +1609,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1631,7 +1626,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>35</v>
@@ -1645,7 +1640,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>37</v>
@@ -1656,16 +1651,16 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1673,13 +1668,13 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1687,7 +1682,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>41</v>
@@ -1701,7 +1696,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>43</v>
@@ -1715,7 +1710,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>45</v>
@@ -1729,7 +1724,7 @@
         <v>46</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>45</v>
@@ -1743,7 +1738,7 @@
         <v>47</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>45</v>
@@ -1757,7 +1752,7 @@
         <v>48</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>45</v>
@@ -1768,83 +1763,83 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>49</v>
+        <v>218</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>50</v>
+        <v>219</v>
       </c>
       <c r="D45" s="4">
-        <v>166</v>
+        <v>750</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D46" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>135</v>
+        <v>50</v>
+      </c>
+      <c r="D47" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1852,27 +1847,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D50" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D51" s="4">
         <v>80</v>
@@ -1880,27 +1875,27 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>213</v>
+        <v>56</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>214</v>
+        <v>57</v>
       </c>
       <c r="D52" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1908,13 +1903,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1922,13 +1917,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1936,41 +1931,41 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="D56" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D57" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D58" s="4">
         <v>103</v>
@@ -1978,181 +1973,181 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D59" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D60" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D61" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D62" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D63" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D64" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>157</v>
+        <v>123</v>
+      </c>
+      <c r="D65" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D66" s="4">
-        <v>31</v>
+        <v>123</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="D67" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>159</v>
+      <c r="D68" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" s="4">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -2160,13 +2155,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -2174,111 +2169,111 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="D73" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>164</v>
+        <v>79</v>
+      </c>
+      <c r="D74" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D75" s="4">
-        <v>1</v>
+        <v>162</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>135</v>
+        <v>81</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D77" s="4">
-        <v>820</v>
+        <v>165</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D78" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>168</v>
+        <v>83</v>
+      </c>
+      <c r="D79" s="4">
+        <v>819</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D80" s="4">
         <v>553</v>
@@ -2286,13 +2281,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D81" s="4">
         <v>72</v>
@@ -2300,13 +2295,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D82" s="4">
         <v>86</v>
@@ -2314,13 +2309,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D83" s="4">
         <v>87</v>
@@ -2328,27 +2323,27 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="4">
         <v>55</v>
@@ -2356,13 +2351,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="4">
         <v>54</v>
@@ -2370,13 +2365,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D87" s="4">
         <v>994</v>
@@ -2384,13 +2379,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D88" s="4">
         <v>695</v>
@@ -2398,27 +2393,27 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2426,27 +2421,27 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2454,13 +2449,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D93" s="4">
         <v>53</v>
@@ -2468,13 +2463,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D94" s="4">
         <v>107</v>
@@ -2482,13 +2477,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D95" s="4">
         <v>918</v>
@@ -2496,13 +2491,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D96" s="4">
         <v>747</v>
@@ -2510,13 +2505,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D97" s="4">
         <v>449</v>
@@ -2524,13 +2519,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D98" s="4">
         <v>170</v>
@@ -2538,13 +2533,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D99" s="4">
         <v>163</v>
@@ -2552,13 +2547,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D100" s="4">
         <v>799</v>
@@ -2566,13 +2561,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D101" s="4">
         <v>1127</v>
@@ -2580,13 +2575,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D102" s="4">
         <v>569</v>
@@ -2594,13 +2589,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D103" s="4">
         <v>762</v>
@@ -2608,13 +2603,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2622,13 +2617,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D105" s="4">
         <v>211</v>
@@ -2636,55 +2631,55 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2692,27 +2687,27 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2720,13 +2715,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
@@ -2739,18 +2734,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D103 A105:D112">
+  <conditionalFormatting sqref="A2:D78 A80:D112">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A104:D104">
+  <conditionalFormatting sqref="A79:D79">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A104))&gt;0</formula>
+      <formula>LEN(TRIM(A79))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48535BE-733C-434B-9E13-A60726A67875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1296259-D4B3-4C08-BFE8-9B0D6457F3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t>S110018</t>
   </si>
   <si>
-    <t>ESPONJA DUPLA FACE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010018</t>
   </si>
   <si>
@@ -699,6 +696,9 @@
   </si>
   <si>
     <t>S050019</t>
+  </si>
+  <si>
+    <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1149,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:D38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1164,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1175,13 +1177,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1189,13 +1191,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -1206,7 +1208,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -1220,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1231,13 +1233,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D6" s="4">
         <v>53</v>
@@ -1245,44 +1247,44 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>213</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1290,7 +1292,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
@@ -1301,10 +1303,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1315,10 +1317,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1332,7 +1334,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1346,7 +1348,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1360,7 +1362,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1374,7 +1376,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
@@ -1388,7 +1390,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1399,16 +1401,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1416,7 +1418,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -1430,7 +1432,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -1441,10 +1443,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1458,7 +1460,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>23</v>
@@ -1472,7 +1474,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>25</v>
@@ -1486,7 +1488,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1497,13 +1499,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D25" s="4">
         <v>904</v>
@@ -1511,24 +1513,24 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>28</v>
@@ -1539,13 +1541,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -1553,10 +1555,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>29</v>
@@ -1570,7 +1572,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>31</v>
@@ -1581,13 +1583,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1598,7 +1600,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>33</v>
@@ -1609,16 +1611,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1626,7 +1628,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>35</v>
@@ -1640,7 +1642,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>37</v>
@@ -1651,16 +1653,16 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1668,38 +1670,38 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D38" s="4">
-        <v>1</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -1707,13 +1709,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D40" s="4">
         <v>899</v>
@@ -1721,13 +1723,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="4">
         <v>896</v>
@@ -1735,13 +1737,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D42" s="4">
         <v>900</v>
@@ -1749,13 +1751,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" s="4">
         <v>898</v>
@@ -1763,27 +1765,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="D44" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1791,13 +1793,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D46" s="4">
         <v>166</v>
@@ -1805,13 +1807,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" s="4">
         <v>167</v>
@@ -1819,27 +1821,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1847,13 +1849,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1861,13 +1863,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D51" s="4">
         <v>80</v>
@@ -1875,13 +1877,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D52" s="4">
         <v>80</v>
@@ -1889,13 +1891,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1903,13 +1905,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1917,13 +1919,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1931,13 +1933,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1945,13 +1947,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D57" s="4">
         <v>40</v>
@@ -1959,13 +1961,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D58" s="4">
         <v>103</v>
@@ -1973,13 +1975,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D59" s="4">
         <v>103</v>
@@ -1987,13 +1989,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D60" s="4">
         <v>910</v>
@@ -2001,13 +2003,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2015,13 +2017,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D62" s="4">
         <v>745</v>
@@ -2029,13 +2031,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D63" s="4">
         <v>33</v>
@@ -2043,13 +2045,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D64" s="4">
         <v>32</v>
@@ -2057,13 +2059,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2071,27 +2073,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D67" s="4">
         <v>31</v>
@@ -2099,13 +2101,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D68" s="4">
         <v>2</v>
@@ -2113,41 +2115,41 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -2155,13 +2157,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -2169,13 +2171,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -2183,13 +2185,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D74" s="4">
         <v>211</v>
@@ -2197,27 +2199,27 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C75" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -2225,27 +2227,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="D77" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D78" s="4">
         <v>820</v>
@@ -2253,13 +2255,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D79" s="4">
         <v>819</v>
@@ -2267,13 +2269,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D80" s="4">
         <v>553</v>
@@ -2281,13 +2283,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D81" s="4">
         <v>72</v>
@@ -2295,13 +2297,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D82" s="4">
         <v>86</v>
@@ -2309,13 +2311,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D83" s="4">
         <v>87</v>
@@ -2323,27 +2325,27 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D85" s="4">
         <v>55</v>
@@ -2351,13 +2353,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D86" s="4">
         <v>54</v>
@@ -2365,13 +2367,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D87" s="4">
         <v>994</v>
@@ -2379,13 +2381,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D88" s="4">
         <v>695</v>
@@ -2393,27 +2395,27 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="D89" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2421,27 +2423,27 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="D91" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2449,13 +2451,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D93" s="4">
         <v>53</v>
@@ -2463,13 +2465,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D94" s="4">
         <v>107</v>
@@ -2477,13 +2479,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D95" s="4">
         <v>918</v>
@@ -2491,13 +2493,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="D96" s="4">
         <v>747</v>
@@ -2505,13 +2507,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="D97" s="4">
         <v>449</v>
@@ -2519,13 +2521,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D98" s="4">
         <v>170</v>
@@ -2533,13 +2535,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D99" s="4">
         <v>163</v>
@@ -2547,13 +2549,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D100" s="4">
         <v>799</v>
@@ -2561,13 +2563,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D101" s="4">
         <v>1127</v>
@@ -2575,13 +2577,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D102" s="4">
         <v>569</v>
@@ -2589,13 +2591,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D103" s="4">
         <v>762</v>
@@ -2603,13 +2605,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2617,13 +2619,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D105" s="4">
         <v>211</v>
@@ -2631,55 +2633,55 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="D106" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="D107" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="D108" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2687,27 +2689,27 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C110" s="4" t="s">
+      <c r="D110" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2715,13 +2717,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
@@ -2734,18 +2736,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D78 A80:D112">
+  <conditionalFormatting sqref="A2:D37 A39:D112">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79:D79">
+  <conditionalFormatting sqref="A38:D38">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A79))&gt;0</formula>
+      <formula>LEN(TRIM(A38))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1296259-D4B3-4C08-BFE8-9B0D6457F3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA3F1DC-6702-4979-AC24-D07D81B390BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -278,9 +278,6 @@
     <t>S040043</t>
   </si>
   <si>
-    <t>PANO DE CHAO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010037</t>
   </si>
   <si>
@@ -413,12 +410,6 @@
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P - TAMANHO P</t>
   </si>
   <si>
-    <t>LENCOL HOSPITALAR PAPEL 50CMX50M - UNICA</t>
-  </si>
-  <si>
-    <t>S010084</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -699,6 +690,15 @@
   </si>
   <si>
     <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
+  </si>
+  <si>
+    <t>LENCOL HOSPITALAR DE PAPEL - 50CMX50M</t>
+  </si>
+  <si>
+    <t>S010024</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO ALVEJADO - 50X75CM</t>
   </si>
 </sst>
 </file>
@@ -806,7 +806,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1149,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:D38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1177,13 +1186,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1191,13 +1200,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -1208,7 +1217,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -1222,7 +1231,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1233,13 +1242,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D6" s="4">
         <v>53</v>
@@ -1247,44 +1256,44 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1292,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
@@ -1303,10 +1312,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1317,10 +1326,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1334,7 +1343,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1348,7 +1357,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1362,7 +1371,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1376,7 +1385,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
@@ -1390,7 +1399,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1401,16 +1410,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,7 +1427,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -1432,7 +1441,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -1443,10 +1452,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1460,7 +1469,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>23</v>
@@ -1474,7 +1483,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>25</v>
@@ -1488,7 +1497,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1499,13 +1508,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D25" s="4">
         <v>904</v>
@@ -1513,24 +1522,24 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>28</v>
@@ -1541,13 +1550,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -1555,10 +1564,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>29</v>
@@ -1572,7 +1581,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>31</v>
@@ -1583,13 +1592,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1600,7 +1609,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>33</v>
@@ -1611,16 +1620,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1628,7 +1637,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>35</v>
@@ -1642,7 +1651,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>37</v>
@@ -1653,16 +1662,16 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1670,21 +1679,21 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>40</v>
@@ -1698,7 +1707,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>42</v>
@@ -1712,7 +1721,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>44</v>
@@ -1726,7 +1735,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>44</v>
@@ -1740,7 +1749,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>44</v>
@@ -1754,7 +1763,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>44</v>
@@ -1765,27 +1774,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1796,7 +1805,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>49</v>
@@ -1810,7 +1819,7 @@
         <v>50</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>49</v>
@@ -1821,27 +1830,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1852,7 +1861,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>52</v>
@@ -1866,7 +1875,7 @@
         <v>53</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>54</v>
@@ -1880,7 +1889,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>56</v>
@@ -1891,13 +1900,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1908,7 +1917,7 @@
         <v>57</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>58</v>
@@ -1919,13 +1928,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1933,16 +1942,16 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>125</v>
+        <v>218</v>
       </c>
       <c r="D56" s="4">
-        <v>1</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1950,7 +1959,7 @@
         <v>59</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>60</v>
@@ -1964,7 +1973,7 @@
         <v>61</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>62</v>
@@ -1978,7 +1987,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>64</v>
@@ -1992,7 +2001,7 @@
         <v>65</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>64</v>
@@ -2006,7 +2015,7 @@
         <v>66</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>67</v>
@@ -2020,7 +2029,7 @@
         <v>68</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>69</v>
@@ -2034,7 +2043,7 @@
         <v>70</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>71</v>
@@ -2048,7 +2057,7 @@
         <v>72</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>71</v>
@@ -2059,13 +2068,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2073,27 +2082,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D67" s="4">
         <v>31</v>
@@ -2104,7 +2113,7 @@
         <v>73</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>74</v>
@@ -2115,30 +2124,30 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2146,7 +2155,7 @@
         <v>75</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>76</v>
@@ -2157,13 +2166,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -2171,13 +2180,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -2188,7 +2197,7 @@
         <v>77</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>78</v>
@@ -2199,55 +2208,55 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D76" s="4">
-        <v>1</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D78" s="4">
         <v>820</v>
@@ -2255,13 +2264,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D79" s="4">
         <v>819</v>
@@ -2269,13 +2278,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D80" s="4">
         <v>553</v>
@@ -2283,13 +2292,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D81" s="4">
         <v>72</v>
@@ -2297,13 +2306,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D82" s="4">
         <v>86</v>
@@ -2311,13 +2320,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D83" s="4">
         <v>87</v>
@@ -2325,27 +2334,27 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D85" s="4">
         <v>55</v>
@@ -2353,13 +2362,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D86" s="4">
         <v>54</v>
@@ -2367,13 +2376,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="4">
         <v>994</v>
@@ -2381,13 +2390,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D88" s="4">
         <v>695</v>
@@ -2395,27 +2404,27 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2423,27 +2432,27 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2451,13 +2460,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D93" s="4">
         <v>53</v>
@@ -2465,13 +2474,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D94" s="4">
         <v>107</v>
@@ -2479,13 +2488,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D95" s="4">
         <v>918</v>
@@ -2493,13 +2502,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D96" s="4">
         <v>747</v>
@@ -2507,13 +2516,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D97" s="4">
         <v>449</v>
@@ -2521,13 +2530,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D98" s="4">
         <v>170</v>
@@ -2535,13 +2544,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D99" s="4">
         <v>163</v>
@@ -2549,13 +2558,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D100" s="4">
         <v>799</v>
@@ -2563,13 +2572,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D101" s="4">
         <v>1127</v>
@@ -2577,13 +2586,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D102" s="4">
         <v>569</v>
@@ -2591,13 +2600,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D103" s="4">
         <v>762</v>
@@ -2605,13 +2614,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2619,13 +2628,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D105" s="4">
         <v>211</v>
@@ -2633,55 +2642,55 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2689,27 +2698,27 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2717,13 +2726,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
@@ -2736,18 +2745,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D37 A39:D112">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D55 A57:D75 A77:D112">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:D38">
+  <conditionalFormatting sqref="A56:D56">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A56))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76:D76">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A38))&gt;0</formula>
+      <formula>LEN(TRIM(A76))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA3F1DC-6702-4979-AC24-D07D81B390BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50DA2E7-37F6-4AC3-8D6E-436D778949B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="217">
   <si>
     <t>Complemento</t>
   </si>
@@ -137,18 +137,6 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>DISPENSER P/ SABONETE LIQ. - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110014</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL TOALHA - UNICA</t>
-  </si>
-  <si>
-    <t>S010063</t>
-  </si>
-  <si>
     <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
   </si>
   <si>
@@ -230,15 +218,9 @@
     <t>S010026</t>
   </si>
   <si>
-    <t>LIMPADOR MULT-USO - 500ML - 500ML</t>
-  </si>
-  <si>
     <t>S010027</t>
   </si>
   <si>
-    <t>LIMPADOR MULT-USO - CIF</t>
-  </si>
-  <si>
     <t>LIVRO ATA - UNICA - UNICA</t>
   </si>
   <si>
@@ -467,18 +449,9 @@
     <t>DESINFETANTE LIQUIDO - 1000ML - 1000ML</t>
   </si>
   <si>
-    <t>DISPENSER ALCOOL EM GEL - UNICA</t>
-  </si>
-  <si>
     <t>S010087</t>
   </si>
   <si>
-    <t>DISPENSER PAPEL HIGIENICO - UNICA</t>
-  </si>
-  <si>
-    <t>S010064</t>
-  </si>
-  <si>
     <t>ENVELOPE A4 - OURO - OURO</t>
   </si>
   <si>
@@ -699,6 +672,24 @@
   </si>
   <si>
     <t>PANO DE CHAO ALVEJADO - 50X75CM</t>
+  </si>
+  <si>
+    <t>DISPENSER - ALCOOL EM GEL</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL HIGIENICO</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>DISPENSER - SABONETE LIQUIDO</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - 500ML - 500ML</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - CIF</t>
   </si>
 </sst>
 </file>
@@ -806,16 +797,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1158,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:D76"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1186,13 +1168,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1200,13 +1182,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -1217,7 +1199,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -1231,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1242,13 +1224,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D6" s="4">
         <v>53</v>
@@ -1256,44 +1238,44 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1301,7 +1283,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
@@ -1312,10 +1294,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1326,10 +1308,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1343,7 +1325,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1357,7 +1339,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1371,7 +1353,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1385,7 +1367,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
@@ -1399,7 +1381,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1410,16 +1392,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1427,7 +1409,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -1441,7 +1423,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -1452,10 +1434,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1469,7 +1451,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>23</v>
@@ -1483,7 +1465,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>25</v>
@@ -1497,7 +1479,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1508,13 +1490,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D25" s="4">
         <v>904</v>
@@ -1522,24 +1504,24 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>28</v>
@@ -1550,13 +1532,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -1564,10 +1546,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>29</v>
@@ -1581,7 +1563,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>31</v>
@@ -1592,69 +1574,69 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D31" s="4">
-        <v>1</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="D32" s="4">
-        <v>1</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1178</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1662,41 +1644,41 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D38" s="4">
         <v>1159</v>
@@ -1704,13 +1686,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -1718,13 +1700,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D40" s="4">
         <v>899</v>
@@ -1732,13 +1714,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D41" s="4">
         <v>896</v>
@@ -1746,13 +1728,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D42" s="4">
         <v>900</v>
@@ -1760,13 +1742,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D43" s="4">
         <v>898</v>
@@ -1774,27 +1756,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="D44" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1802,13 +1784,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D46" s="4">
         <v>166</v>
@@ -1816,13 +1798,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D47" s="4">
         <v>167</v>
@@ -1830,27 +1812,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1858,13 +1840,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1872,13 +1854,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D51" s="4">
         <v>80</v>
@@ -1886,13 +1868,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D52" s="4">
         <v>80</v>
@@ -1900,13 +1882,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1914,13 +1896,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1928,13 +1910,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1942,13 +1924,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D56" s="4">
         <v>1163</v>
@@ -1956,13 +1938,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D57" s="4">
         <v>40</v>
@@ -1970,13 +1952,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D58" s="4">
         <v>103</v>
@@ -1984,13 +1966,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D59" s="4">
         <v>103</v>
@@ -1998,13 +1980,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D60" s="4">
         <v>910</v>
@@ -2012,13 +1994,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2026,13 +2008,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D62" s="4">
         <v>745</v>
@@ -2040,13 +2022,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D63" s="4">
         <v>33</v>
@@ -2054,13 +2036,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D64" s="4">
         <v>32</v>
@@ -2068,13 +2050,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2082,27 +2064,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D67" s="4">
         <v>31</v>
@@ -2110,13 +2092,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D68" s="4">
         <v>2</v>
@@ -2124,41 +2106,41 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -2166,13 +2148,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -2180,13 +2162,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -2194,13 +2176,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D74" s="4">
         <v>211</v>
@@ -2208,27 +2190,27 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D76" s="4">
         <v>1166</v>
@@ -2236,27 +2218,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D78" s="4">
         <v>820</v>
@@ -2264,13 +2246,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D79" s="4">
         <v>819</v>
@@ -2278,13 +2260,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D80" s="4">
         <v>553</v>
@@ -2292,13 +2274,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D81" s="4">
         <v>72</v>
@@ -2306,13 +2288,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D82" s="4">
         <v>86</v>
@@ -2320,13 +2302,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D83" s="4">
         <v>87</v>
@@ -2334,27 +2316,27 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D85" s="4">
         <v>55</v>
@@ -2362,13 +2344,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D86" s="4">
         <v>54</v>
@@ -2376,13 +2358,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D87" s="4">
         <v>994</v>
@@ -2390,13 +2372,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D88" s="4">
         <v>695</v>
@@ -2404,27 +2386,27 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2432,27 +2414,27 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2460,13 +2442,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D93" s="4">
         <v>53</v>
@@ -2474,13 +2456,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D94" s="4">
         <v>107</v>
@@ -2488,13 +2470,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D95" s="4">
         <v>918</v>
@@ -2502,13 +2484,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D96" s="4">
         <v>747</v>
@@ -2516,13 +2498,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="C97" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D97" s="4">
         <v>449</v>
@@ -2530,13 +2512,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D98" s="4">
         <v>170</v>
@@ -2544,13 +2526,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D99" s="4">
         <v>163</v>
@@ -2558,13 +2540,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D100" s="4">
         <v>799</v>
@@ -2572,13 +2554,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D101" s="4">
         <v>1127</v>
@@ -2586,13 +2568,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D102" s="4">
         <v>569</v>
@@ -2600,13 +2582,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D103" s="4">
         <v>762</v>
@@ -2614,13 +2596,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2628,13 +2610,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D105" s="4">
         <v>211</v>
@@ -2642,55 +2624,55 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2698,27 +2680,27 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2726,13 +2708,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
@@ -2745,23 +2727,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="14">
+    <cfRule type="expression" dxfId="2" priority="16">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D55 A57:D75 A77:D112">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A2:D58 A61:D112 B59:D60">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:D56">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A56))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76:D76">
+  <conditionalFormatting sqref="A59:A60">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A76))&gt;0</formula>
+      <formula>LEN(TRIM(A59))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50DA2E7-37F6-4AC3-8D6E-436D778949B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF02AAEA-2D7A-4350-A4A1-9AEC0058E3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="216">
   <si>
     <t>Complemento</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Derivação</t>
   </si>
   <si>
-    <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
-  </si>
-  <si>
     <t>S010004</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>FITA ADESIVA TRANSPARENTE - 45CMX45M</t>
   </si>
   <si>
-    <t>FLANELA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010021</t>
   </si>
   <si>
@@ -233,24 +227,15 @@
     <t>S110045</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO G - TAMANHO G</t>
-  </si>
-  <si>
     <t>S010030</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO M - TAMANHO M</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - AZUL - AZUL</t>
   </si>
   <si>
     <t>S020101</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010032</t>
   </si>
   <si>
@@ -383,15 +368,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G - TAMANHO G</t>
-  </si>
-  <si>
     <t>S010031</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P - TAMANHO P</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -467,12 +446,6 @@
     <t>S230009</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M - TAMANHO M</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - PRETO - PRETO</t>
   </si>
   <si>
@@ -494,9 +467,6 @@
     <t>591</t>
   </si>
   <si>
-    <t>PANO DE PRATO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -690,6 +660,33 @@
   </si>
   <si>
     <t>LIMPADOR MULTIUSO - CIF</t>
+  </si>
+  <si>
+    <t>PANO DE PRATO - 50X75CM</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - UNICA</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAMANHO G</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAMANHO M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
+  </si>
+  <si>
+    <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
   </si>
 </sst>
 </file>
@@ -797,7 +794,61 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1140,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:A60"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1168,13 +1219,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1182,13 +1233,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -1196,13 +1247,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1210,13 +1261,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="D5" s="4">
         <v>103</v>
@@ -1224,13 +1275,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D6" s="4">
         <v>53</v>
@@ -1238,55 +1289,55 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D10" s="4">
         <v>809</v>
@@ -1294,13 +1345,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4">
         <v>1046</v>
@@ -1308,13 +1359,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="4">
         <v>1045</v>
@@ -1322,13 +1373,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D13" s="4">
         <v>103</v>
@@ -1336,13 +1387,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="4">
         <v>33</v>
@@ -1350,13 +1401,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D15" s="4">
         <v>31</v>
@@ -1364,13 +1415,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="D16" s="4">
         <v>20</v>
@@ -1378,13 +1429,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -1392,27 +1443,27 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
@@ -1420,13 +1471,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -1434,13 +1485,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4">
         <v>4</v>
@@ -1448,13 +1499,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -1462,13 +1513,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -1476,13 +1527,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D24" s="4">
         <v>52</v>
@@ -1490,13 +1541,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D25" s="4">
         <v>904</v>
@@ -1504,27 +1555,27 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="4">
         <v>109</v>
@@ -1532,13 +1583,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -1546,13 +1597,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="4">
         <v>105</v>
@@ -1560,13 +1611,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D30" s="4">
         <v>103</v>
@@ -1574,13 +1625,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D31" s="4">
         <v>1176</v>
@@ -1588,13 +1639,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D32" s="4">
         <v>1177</v>
@@ -1602,13 +1653,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D33" s="4">
         <v>1178</v>
@@ -1616,13 +1667,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D34" s="4">
         <v>1179</v>
@@ -1630,13 +1681,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1644,41 +1695,41 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="4">
         <v>1159</v>
@@ -1686,13 +1737,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -1700,13 +1751,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D40" s="4">
         <v>899</v>
@@ -1714,13 +1765,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="4">
         <v>896</v>
@@ -1728,13 +1779,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="4">
         <v>900</v>
@@ -1742,13 +1793,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" s="4">
         <v>898</v>
@@ -1756,27 +1807,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1784,13 +1835,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D46" s="4">
         <v>166</v>
@@ -1798,13 +1849,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" s="4">
         <v>167</v>
@@ -1812,27 +1863,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1840,27 +1891,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>47</v>
+        <v>214</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D50" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D51" s="4">
         <v>80</v>
@@ -1868,13 +1919,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D52" s="4">
         <v>80</v>
@@ -1882,13 +1933,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1896,13 +1947,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1910,13 +1961,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1924,13 +1975,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D56" s="4">
         <v>1163</v>
@@ -1938,13 +1989,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D57" s="4">
         <v>40</v>
@@ -1952,13 +2003,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D58" s="4">
         <v>103</v>
@@ -1966,13 +2017,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D59" s="4">
         <v>103</v>
@@ -1980,13 +2031,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D60" s="4">
         <v>910</v>
@@ -1994,13 +2045,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2008,13 +2059,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D62" s="4">
         <v>745</v>
@@ -2022,13 +2073,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D63" s="4">
         <v>33</v>
@@ -2036,13 +2087,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>66</v>
+        <v>210</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D64" s="4">
         <v>32</v>
@@ -2050,13 +2101,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2064,27 +2115,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>143</v>
+        <v>109</v>
+      </c>
+      <c r="D66" s="4">
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>116</v>
+        <v>213</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D67" s="4">
         <v>31</v>
@@ -2092,13 +2143,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D68" s="4">
         <v>2</v>
@@ -2106,41 +2157,41 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -2148,13 +2199,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -2162,13 +2213,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -2176,13 +2227,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D74" s="4">
         <v>211</v>
@@ -2190,27 +2241,27 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D76" s="4">
         <v>1166</v>
@@ -2218,27 +2269,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>124</v>
+        <v>142</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D78" s="4">
         <v>820</v>
@@ -2246,13 +2297,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D79" s="4">
         <v>819</v>
@@ -2260,13 +2311,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D80" s="4">
         <v>553</v>
@@ -2274,13 +2325,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D81" s="4">
         <v>72</v>
@@ -2288,13 +2339,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D82" s="4">
         <v>86</v>
@@ -2302,13 +2353,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D83" s="4">
         <v>87</v>
@@ -2316,27 +2367,27 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D85" s="4">
         <v>55</v>
@@ -2344,13 +2395,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D86" s="4">
         <v>54</v>
@@ -2358,13 +2409,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D87" s="4">
         <v>994</v>
@@ -2372,13 +2423,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D88" s="4">
         <v>695</v>
@@ -2386,27 +2437,27 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2414,27 +2465,27 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2442,13 +2493,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D93" s="4">
         <v>53</v>
@@ -2456,13 +2507,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D94" s="4">
         <v>107</v>
@@ -2470,13 +2521,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D95" s="4">
         <v>918</v>
@@ -2484,13 +2535,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D96" s="4">
         <v>747</v>
@@ -2498,13 +2549,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D97" s="4">
         <v>449</v>
@@ -2512,13 +2563,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D98" s="4">
         <v>170</v>
@@ -2526,13 +2577,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D99" s="4">
         <v>163</v>
@@ -2540,13 +2591,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D100" s="4">
         <v>799</v>
@@ -2554,13 +2605,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D101" s="4">
         <v>1127</v>
@@ -2568,13 +2619,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D102" s="4">
         <v>569</v>
@@ -2582,13 +2633,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D103" s="4">
         <v>762</v>
@@ -2596,13 +2647,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2610,13 +2661,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D105" s="4">
         <v>211</v>
@@ -2624,55 +2675,55 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2680,27 +2731,27 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2708,13 +2759,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
@@ -2727,18 +2778,48 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="16">
+    <cfRule type="expression" dxfId="8" priority="23">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D58 A61:D112 B59:D60">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D3 A78:D112 A72:D76 A68:D70 A51:D62 A5:D49">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59:A60">
+  <conditionalFormatting sqref="A77:D77">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(A77))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:D71">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(B71))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A71))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:D67 A63:D64">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A63))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:A67">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A65))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:D50">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A50))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:D4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A59))&gt;0</formula>
+      <formula>LEN(TRIM(A4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF02AAEA-2D7A-4350-A4A1-9AEC0058E3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CAF23E-A759-4902-A5BA-C13BF148044F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="214">
   <si>
     <t>Complemento</t>
   </si>
@@ -590,24 +590,6 @@
     <t>S150189</t>
   </si>
   <si>
-    <t>MOP PO REFIL - UNICA</t>
-  </si>
-  <si>
-    <t>S010076</t>
-  </si>
-  <si>
-    <t>MOP UMIDO REFIL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010034</t>
-  </si>
-  <si>
-    <t>KIT MOP UMIDO - UNICA</t>
-  </si>
-  <si>
-    <t>S010086</t>
-  </si>
-  <si>
     <t>AVENTAL C/ MANGA - UNICA</t>
   </si>
   <si>
@@ -687,6 +669,18 @@
   </si>
   <si>
     <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>MOP - KIT UMIDO</t>
+  </si>
+  <si>
+    <t>S010075</t>
+  </si>
+  <si>
+    <t>MOP - REFIL PO</t>
+  </si>
+  <si>
+    <t>MOP - REFIL UMIDO</t>
   </si>
 </sst>
 </file>
@@ -794,61 +788,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1191,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,13 +1159,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1247,7 +1187,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>169</v>
@@ -1303,13 +1243,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>117</v>
@@ -1625,7 +1565,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>169</v>
@@ -1639,7 +1579,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>169</v>
@@ -1653,7 +1593,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>169</v>
@@ -1667,7 +1607,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>169</v>
@@ -1723,7 +1663,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>169</v>
@@ -1821,13 +1761,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1891,7 +1831,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>169</v>
@@ -1933,13 +1873,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>187</v>
+        <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>188</v>
+        <v>52</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1947,13 +1887,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1961,55 +1901,55 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="D55" s="4">
-        <v>1</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="D56" s="4">
-        <v>1163</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D57" s="4">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>55</v>
+        <v>199</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D58" s="4">
         <v>103</v>
@@ -2017,7 +1957,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>169</v>
@@ -2026,54 +1966,54 @@
         <v>57</v>
       </c>
       <c r="D59" s="4">
-        <v>103</v>
+        <v>910</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D60" s="4">
-        <v>910</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D61" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D62" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>169</v>
@@ -2082,26 +2022,26 @@
         <v>62</v>
       </c>
       <c r="D63" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="D64" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>168</v>
@@ -2110,12 +2050,12 @@
         <v>109</v>
       </c>
       <c r="D65" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>168</v>
@@ -2124,26 +2064,26 @@
         <v>109</v>
       </c>
       <c r="D66" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="D67" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>169</v>
@@ -2151,13 +2091,13 @@
       <c r="C68" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="4">
-        <v>2</v>
+      <c r="D68" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>169</v>
@@ -2166,63 +2106,63 @@
         <v>64</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>137</v>
+        <v>202</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>138</v>
+        <v>65</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="D71" s="4">
-        <v>1</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="D72" s="4">
-        <v>1</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D73" s="4">
-        <v>1</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2255,7 +2195,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>169</v>
@@ -2269,7 +2209,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>169</v>
@@ -2647,13 +2587,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2778,48 +2718,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="8" priority="23">
+    <cfRule type="expression" dxfId="2" priority="24">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D3 A78:D112 A72:D76 A68:D70 A51:D62 A5:D49">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+  <conditionalFormatting sqref="A2:D70 A74:D112">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77:D77">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
-      <formula>LEN(TRIM(A77))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:D71">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(B71))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+  <conditionalFormatting sqref="A71:D73">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A71))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65:D67 A63:D64">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A63))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:A67">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(A65))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:D50">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A50))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:D4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CAF23E-A759-4902-A5BA-C13BF148044F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80CD21D-112C-4333-871C-969673D0F247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$113</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="215">
   <si>
     <t>Complemento</t>
   </si>
@@ -227,9 +227,6 @@
     <t>S110045</t>
   </si>
   <si>
-    <t>S010030</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - AZUL - AZUL</t>
   </si>
   <si>
@@ -350,9 +347,6 @@
     <t>S010005</t>
   </si>
   <si>
-    <t>AGULHA - UNICA</t>
-  </si>
-  <si>
     <t>S010072</t>
   </si>
   <si>
@@ -368,9 +362,6 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>S010031</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -524,9 +515,6 @@
     <t>S110036</t>
   </si>
   <si>
-    <t>SACO P/ LIXO C/10UN - 30LT</t>
-  </si>
-  <si>
     <t>S010057</t>
   </si>
   <si>
@@ -650,21 +638,6 @@
     <t>MASCARA DESCARTAVEL - UNICA</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO G</t>
-  </si>
-  <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO M</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
-  </si>
-  <si>
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
@@ -681,6 +654,36 @@
   </si>
   <si>
     <t>MOP - REFIL UMIDO</t>
+  </si>
+  <si>
+    <t>AGULHA 12X40MM - 100UN</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO C/10UN - 30L</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.G - TAM.G</t>
+  </si>
+  <si>
+    <t>S080024</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.M - TAM.M</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.P - TAM.P</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.G - TAM.G</t>
+  </si>
+  <si>
+    <t>S080023</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.M - TAM.M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
   </si>
 </sst>
 </file>
@@ -788,7 +791,25 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1129,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:D73"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1159,13 +1180,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1173,24 +1194,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1204,7 +1225,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1215,13 +1236,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D6" s="4">
         <v>53</v>
@@ -1229,44 +1250,44 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1274,7 +1295,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -1285,10 +1306,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1299,10 +1320,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1316,7 +1337,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1330,7 +1351,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -1344,7 +1365,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
@@ -1358,7 +1379,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
@@ -1372,7 +1393,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1383,16 +1404,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1400,7 +1421,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
@@ -1414,7 +1435,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>19</v>
@@ -1425,10 +1446,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>19</v>
@@ -1442,7 +1463,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
@@ -1456,7 +1477,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1470,7 +1491,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>26</v>
@@ -1481,13 +1502,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D25" s="4">
         <v>904</v>
@@ -1495,24 +1516,24 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
@@ -1523,13 +1544,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -1537,10 +1558,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
@@ -1554,7 +1575,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>30</v>
@@ -1565,13 +1586,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D31" s="4">
         <v>1176</v>
@@ -1579,13 +1600,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D32" s="4">
         <v>1177</v>
@@ -1593,13 +1614,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D33" s="4">
         <v>1178</v>
@@ -1607,13 +1628,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D34" s="4">
         <v>1179</v>
@@ -1624,7 +1645,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>32</v>
@@ -1635,16 +1656,16 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1652,27 +1673,27 @@
         <v>33</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="4">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1680,7 +1701,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>37</v>
@@ -1694,7 +1715,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>39</v>
@@ -1708,7 +1729,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>39</v>
@@ -1722,7 +1743,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>39</v>
@@ -1736,7 +1757,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>39</v>
@@ -1747,27 +1768,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1778,7 +1799,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>44</v>
@@ -1792,7 +1813,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>44</v>
@@ -1803,27 +1824,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1831,10 +1852,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>46</v>
@@ -1848,7 +1869,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>48</v>
@@ -1862,7 +1883,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>50</v>
@@ -1876,7 +1897,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>52</v>
@@ -1887,13 +1908,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1901,13 +1922,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D55" s="4">
         <v>1163</v>
@@ -1918,7 +1939,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>54</v>
@@ -1932,7 +1953,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>56</v>
@@ -1943,10 +1964,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>57</v>
@@ -1957,10 +1978,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>57</v>
@@ -1974,7 +1995,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>59</v>
@@ -1988,7 +2009,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>61</v>
@@ -1999,13 +2020,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -2013,723 +2034,747 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="D63" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="D64" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="D65" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="D66" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="D67" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>136</v>
+        <v>63</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D70" s="4">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="D71" s="4">
-        <v>1172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D72" s="4">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D73" s="4">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="D74" s="4">
-        <v>211</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>141</v>
+        <v>66</v>
+      </c>
+      <c r="D75" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D76" s="4">
-        <v>1166</v>
+        <v>137</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="D77" s="4">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D78" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D79" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D80" s="4">
-        <v>553</v>
+        <v>819</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D81" s="4">
-        <v>72</v>
+        <v>553</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D82" s="4">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D83" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>145</v>
+        <v>75</v>
+      </c>
+      <c r="D84" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D85" s="4">
-        <v>55</v>
+        <v>75</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D86" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D87" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D88" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>117</v>
+        <v>79</v>
+      </c>
+      <c r="D89" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D90" s="4">
-        <v>1</v>
+        <v>146</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>117</v>
+        <v>82</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D92" s="4">
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D93" s="4">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D94" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D95" s="4">
-        <v>918</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="D96" s="4">
-        <v>747</v>
+        <v>918</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D97" s="4">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="D98" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D99" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D100" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D101" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D102" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D103" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="D104" s="4">
-        <v>1</v>
+        <v>762</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="D105" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>117</v>
+        <v>97</v>
+      </c>
+      <c r="D106" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C109" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="D109" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>159</v>
+        <v>110</v>
+      </c>
+      <c r="D110" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D111" s="4">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D113" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D112" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D112">
-      <sortCondition ref="A1:A112"/>
+  <autoFilter ref="A1:D113" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D113">
+      <sortCondition ref="A1:A113"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="24">
+    <cfRule type="expression" dxfId="4" priority="30">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D70 A74:D112">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D61 A68:D113">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:D73">
+  <conditionalFormatting sqref="A62:D64">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A62))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:A67 C65:D67">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A65))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:B67">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A71))&gt;0</formula>
+      <formula>LEN(TRIM(B65))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80CD21D-112C-4333-871C-969673D0F247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A7E4E6-C8D6-4EE2-A0DA-0360E1A3E6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$112</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="213">
   <si>
     <t>Complemento</t>
   </si>
@@ -362,15 +362,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>SACO DE LIXO INFECTANTE - 50LTS</t>
-  </si>
-  <si>
     <t>S010062</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - ÚNICA</t>
-  </si>
-  <si>
     <t>S150190</t>
   </si>
   <si>
@@ -566,24 +560,12 @@
     <t>S020048</t>
   </si>
   <si>
-    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S020008</t>
-  </si>
-  <si>
     <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
   </si>
   <si>
     <t>S150189</t>
   </si>
   <si>
-    <t>AVENTAL C/ MANGA - UNICA</t>
-  </si>
-  <si>
-    <t>S150204</t>
-  </si>
-  <si>
     <t>AGUA SANITÁRIA - 1000ML - 1000ML</t>
   </si>
   <si>
@@ -684,6 +666,18 @@
   </si>
   <si>
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
+  </si>
+  <si>
+    <t>AVENTAL DESCARTAVEL TNT MANGA LONGA - 30G</t>
+  </si>
+  <si>
+    <t>S080016</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO INFECTANTE - 50L</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
   </si>
 </sst>
 </file>
@@ -791,16 +785,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1150,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1180,13 +1165,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1194,10 +1179,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>102</v>
@@ -1208,10 +1193,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1225,7 +1210,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1239,7 +1224,7 @@
         <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>101</v>
@@ -1250,44 +1235,44 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>114</v>
+        <v>210</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1208</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1295,7 +1280,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -1306,10 +1291,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1320,10 +1305,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1337,7 +1322,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1351,7 +1336,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -1365,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
@@ -1379,7 +1364,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
@@ -1393,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1404,16 +1389,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1421,7 +1406,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
@@ -1435,7 +1420,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>19</v>
@@ -1446,10 +1431,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>19</v>
@@ -1463,7 +1448,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
@@ -1477,7 +1462,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1491,7 +1476,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>26</v>
@@ -1505,7 +1490,7 @@
         <v>103</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>104</v>
@@ -1516,24 +1501,24 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
@@ -1544,13 +1529,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -1558,10 +1543,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
@@ -1575,7 +1560,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>30</v>
@@ -1586,13 +1571,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D31" s="4">
         <v>1176</v>
@@ -1600,13 +1585,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D32" s="4">
         <v>1177</v>
@@ -1614,13 +1599,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D33" s="4">
         <v>1178</v>
@@ -1628,13 +1613,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D34" s="4">
         <v>1179</v>
@@ -1645,7 +1630,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>32</v>
@@ -1656,16 +1641,16 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1673,21 +1658,21 @@
         <v>33</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
@@ -1701,7 +1686,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>37</v>
@@ -1715,7 +1700,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>39</v>
@@ -1729,7 +1714,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>39</v>
@@ -1743,7 +1728,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>39</v>
@@ -1757,7 +1742,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>39</v>
@@ -1768,27 +1753,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1799,7 +1784,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>44</v>
@@ -1813,7 +1798,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>44</v>
@@ -1824,27 +1809,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1852,10 +1837,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>46</v>
@@ -1869,7 +1854,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>48</v>
@@ -1883,7 +1868,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>50</v>
@@ -1897,7 +1882,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>52</v>
@@ -1911,7 +1896,7 @@
         <v>105</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>106</v>
@@ -1922,16 +1907,16 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D55" s="4">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1939,7 +1924,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>54</v>
@@ -1953,7 +1938,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>56</v>
@@ -1964,10 +1949,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>57</v>
@@ -1978,10 +1963,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>57</v>
@@ -1995,7 +1980,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>59</v>
@@ -2009,7 +1994,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>61</v>
@@ -2020,13 +2005,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -2034,13 +2019,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D63" s="4">
         <v>33</v>
@@ -2048,13 +2033,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D64" s="4">
         <v>32</v>
@@ -2062,13 +2047,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2076,13 +2061,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D66" s="4">
         <v>32</v>
@@ -2090,13 +2075,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D67" s="4">
         <v>31</v>
@@ -2107,7 +2092,7 @@
         <v>62</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>63</v>
@@ -2118,38 +2103,38 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>64</v>
@@ -2160,13 +2145,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D72" s="4">
         <v>1172</v>
@@ -2174,13 +2159,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D73" s="4">
         <v>1173</v>
@@ -2188,13 +2173,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D74" s="4">
         <v>1174</v>
@@ -2205,7 +2190,7 @@
         <v>65</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>66</v>
@@ -2216,24 +2201,24 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>67</v>
@@ -2244,13 +2229,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D78" s="4">
         <v>1167</v>
@@ -2261,7 +2246,7 @@
         <v>68</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>69</v>
@@ -2275,7 +2260,7 @@
         <v>70</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>69</v>
@@ -2289,7 +2274,7 @@
         <v>71</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>72</v>
@@ -2300,10 +2285,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>73</v>
@@ -2317,7 +2302,7 @@
         <v>74</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>75</v>
@@ -2331,7 +2316,7 @@
         <v>76</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>75</v>
@@ -2342,24 +2327,24 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>77</v>
@@ -2370,10 +2355,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>77</v>
@@ -2387,7 +2372,7 @@
         <v>80</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>79</v>
@@ -2401,7 +2386,7 @@
         <v>78</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>79</v>
@@ -2412,16 +2397,16 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2429,7 +2414,7 @@
         <v>81</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>82</v>
@@ -2440,16 +2425,16 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2457,7 +2442,7 @@
         <v>83</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>84</v>
@@ -2471,7 +2456,7 @@
         <v>85</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>86</v>
@@ -2485,7 +2470,7 @@
         <v>87</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>88</v>
@@ -2496,27 +2481,27 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="D96" s="4">
-        <v>918</v>
+        <v>986</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D97" s="4">
         <v>437</v>
@@ -2524,13 +2509,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D98" s="4">
         <v>449</v>
@@ -2541,7 +2526,7 @@
         <v>89</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>90</v>
@@ -2555,7 +2540,7 @@
         <v>91</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>90</v>
@@ -2569,7 +2554,7 @@
         <v>92</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>90</v>
@@ -2580,10 +2565,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>93</v>
@@ -2597,7 +2582,7 @@
         <v>94</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>93</v>
@@ -2611,7 +2596,7 @@
         <v>95</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>93</v>
@@ -2622,13 +2607,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -2639,7 +2624,7 @@
         <v>96</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>97</v>
@@ -2650,131 +2635,112 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D110" s="4">
-        <v>1</v>
+        <v>153</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>156</v>
+      <c r="D111" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D113" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D113" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D113">
-      <sortCondition ref="A1:A113"/>
+  <autoFilter ref="A1:D112" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D112">
+      <sortCondition ref="A1:A112"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="4" priority="30">
+    <cfRule type="expression" dxfId="3" priority="35">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D61 A68:D113">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+  <conditionalFormatting sqref="A2:D95 B96:D96 A97:D108 A110:D112 B109:D109">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62:D64">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(A62))&gt;0</formula>
+  <conditionalFormatting sqref="A96">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A96))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:A67 C65:D67">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A65))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65:B67">
+  <conditionalFormatting sqref="A109">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B65))&gt;0</formula>
+      <formula>LEN(TRIM(A109))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A7E4E6-C8D6-4EE2-A0DA-0360E1A3E6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5391AA2C-8418-45AE-B969-F75EDD508976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -233,9 +233,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>S010032</t>
-  </si>
-  <si>
     <t>MOUSE - USB</t>
   </si>
   <si>
@@ -617,9 +614,6 @@
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA</t>
-  </si>
-  <si>
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
@@ -678,6 +672,12 @@
   </si>
   <si>
     <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - TNT</t>
+  </si>
+  <si>
+    <t>S080026</t>
   </si>
 </sst>
 </file>
@@ -785,16 +785,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1137,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1165,13 +1156,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1179,13 +1170,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="6">
         <v>0.5</v>
@@ -1193,10 +1184,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1210,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1221,13 +1212,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D6" s="4">
         <v>53</v>
@@ -1235,27 +1226,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1263,16 +1254,16 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1280,7 +1271,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -1291,10 +1282,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1305,10 +1296,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1322,7 +1313,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1336,7 +1327,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -1350,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
@@ -1364,7 +1355,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
@@ -1378,7 +1369,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1389,16 +1380,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1406,7 +1397,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
@@ -1420,7 +1411,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>19</v>
@@ -1431,10 +1422,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>19</v>
@@ -1448,7 +1439,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
@@ -1462,7 +1453,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1476,7 +1467,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>26</v>
@@ -1487,13 +1478,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D25" s="4">
         <v>904</v>
@@ -1501,24 +1492,24 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
@@ -1529,13 +1520,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -1543,10 +1534,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
@@ -1560,7 +1551,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>30</v>
@@ -1571,13 +1562,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="4">
         <v>1176</v>
@@ -1585,13 +1576,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D32" s="4">
         <v>1177</v>
@@ -1599,13 +1590,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D33" s="4">
         <v>1178</v>
@@ -1613,13 +1604,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D34" s="4">
         <v>1179</v>
@@ -1630,7 +1621,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>32</v>
@@ -1641,16 +1632,16 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1658,21 +1649,21 @@
         <v>33</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
@@ -1686,7 +1677,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>37</v>
@@ -1700,7 +1691,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>39</v>
@@ -1714,7 +1705,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>39</v>
@@ -1728,7 +1719,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>39</v>
@@ -1742,7 +1733,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>39</v>
@@ -1753,27 +1744,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="D44" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1784,7 +1775,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>44</v>
@@ -1798,7 +1789,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>44</v>
@@ -1809,27 +1800,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1837,10 +1828,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>46</v>
@@ -1854,7 +1845,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>48</v>
@@ -1868,7 +1859,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>50</v>
@@ -1882,7 +1873,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>52</v>
@@ -1893,13 +1884,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1907,13 +1898,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="D55" s="4">
         <v>1164</v>
@@ -1924,7 +1915,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>54</v>
@@ -1938,7 +1929,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>56</v>
@@ -1949,10 +1940,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>57</v>
@@ -1963,10 +1954,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>57</v>
@@ -1980,7 +1971,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>59</v>
@@ -1994,7 +1985,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>61</v>
@@ -2005,13 +1996,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -2019,13 +2010,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D63" s="4">
         <v>33</v>
@@ -2033,13 +2024,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D64" s="4">
         <v>32</v>
@@ -2047,13 +2038,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2061,13 +2052,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D66" s="4">
         <v>32</v>
@@ -2075,13 +2066,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D67" s="4">
         <v>31</v>
@@ -2092,7 +2083,7 @@
         <v>62</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>63</v>
@@ -2103,55 +2094,55 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="D71" s="4">
-        <v>1</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D72" s="4">
         <v>1172</v>
@@ -2159,13 +2150,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D73" s="4">
         <v>1173</v>
@@ -2173,13 +2164,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D74" s="4">
         <v>1174</v>
@@ -2187,13 +2178,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D75" s="4">
         <v>211</v>
@@ -2201,41 +2192,41 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C76" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D77" s="4">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D78" s="4">
         <v>1167</v>
@@ -2243,13 +2234,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D79" s="4">
         <v>820</v>
@@ -2257,13 +2248,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D80" s="4">
         <v>819</v>
@@ -2271,13 +2262,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D81" s="4">
         <v>553</v>
@@ -2285,13 +2276,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D82" s="4">
         <v>72</v>
@@ -2299,13 +2290,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D83" s="4">
         <v>86</v>
@@ -2313,13 +2304,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D84" s="4">
         <v>87</v>
@@ -2327,27 +2318,27 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D86" s="4">
         <v>55</v>
@@ -2355,13 +2346,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D87" s="4">
         <v>54</v>
@@ -2369,13 +2360,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D88" s="4">
         <v>994</v>
@@ -2383,13 +2374,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D89" s="4">
         <v>695</v>
@@ -2397,27 +2388,27 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="D90" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2425,27 +2416,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="D92" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2453,13 +2444,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D94" s="4">
         <v>53</v>
@@ -2467,13 +2458,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D95" s="4">
         <v>107</v>
@@ -2481,13 +2472,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D96" s="4">
         <v>986</v>
@@ -2495,13 +2486,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D97" s="4">
         <v>437</v>
@@ -2509,13 +2500,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="D98" s="4">
         <v>449</v>
@@ -2523,13 +2514,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D99" s="4">
         <v>170</v>
@@ -2537,13 +2528,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D100" s="4">
         <v>163</v>
@@ -2551,13 +2542,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D101" s="4">
         <v>799</v>
@@ -2565,13 +2556,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D102" s="4">
         <v>1127</v>
@@ -2579,13 +2570,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D103" s="4">
         <v>569</v>
@@ -2593,13 +2584,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D104" s="4">
         <v>762</v>
@@ -2607,13 +2598,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -2621,13 +2612,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D106" s="4">
         <v>211</v>
@@ -2635,41 +2626,41 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="D107" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="D108" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2677,27 +2668,27 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C110" s="4" t="s">
+      <c r="D110" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2705,13 +2696,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
@@ -2724,23 +2715,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="35">
+    <cfRule type="expression" dxfId="2" priority="36">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D95 B96:D96 A97:D108 A110:D112 B109:D109">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A2:D70 A72:D112">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A96))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A109">
+  <conditionalFormatting sqref="A71:D71">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A109))&gt;0</formula>
+      <formula>LEN(TRIM(A71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5391AA2C-8418-45AE-B969-F75EDD508976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C06931-BB9C-490B-9ECE-4860D2F7E94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="211">
   <si>
     <t>Complemento</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>S010004</t>
-  </si>
-  <si>
-    <t>ALCOOL GEL - 500 ML</t>
-  </si>
-  <si>
-    <t>S010061</t>
   </si>
   <si>
     <t>BOBINA IMPRESSORA FISCAL PADRONIZADO - 80x40M</t>
@@ -785,16 +779,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1126,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1156,13 +1141,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1170,13 +1155,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D3" s="6">
         <v>0.5</v>
@@ -1184,10 +1169,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1198,156 +1183,156 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="D5" s="4">
-        <v>103</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="4">
-        <v>53</v>
+        <v>107</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>110</v>
+        <v>206</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1208</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1208</v>
+        <v>111</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>114</v>
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>809</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D10" s="4">
-        <v>809</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" s="4">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="4">
-        <v>1045</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="4">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1355,41 +1340,41 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>111</v>
+        <v>17</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1397,41 +1382,41 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1439,7 +1424,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
@@ -1453,41 +1438,41 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D24" s="4">
-        <v>52</v>
+        <v>904</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="4">
-        <v>904</v>
+        <v>101</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,181 +1480,181 @@
         <v>119</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>120</v>
+        <v>25</v>
+      </c>
+      <c r="D26" s="4">
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="4">
-        <v>109</v>
+        <v>171</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="D28" s="4">
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="4">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="D30" s="4">
-        <v>103</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D31" s="4">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D32" s="4">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D33" s="4">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="D34" s="4">
-        <v>1179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>111</v>
+      <c r="D37" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="4">
-        <v>1162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1677,13 +1662,13 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="4">
-        <v>1</v>
+        <v>899</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1691,83 +1676,83 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D40" s="4">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D41" s="4">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D42" s="4">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="4">
-        <v>898</v>
+        <v>169</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>111</v>
+        <v>177</v>
+      </c>
+      <c r="D44" s="4">
+        <v>750</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="D45" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1775,69 +1760,69 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D46" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="4">
-        <v>167</v>
+        <v>126</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>111</v>
+        <v>157</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="D49" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D50" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1845,7 +1830,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>48</v>
@@ -1859,24 +1844,24 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D52" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1884,30 +1869,30 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="D54" s="4">
-        <v>1</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="D55" s="4">
-        <v>1164</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1915,24 +1900,24 @@
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D56" s="4">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D57" s="4">
         <v>103</v>
@@ -1940,30 +1925,30 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D58" s="4">
-        <v>103</v>
+        <v>910</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D59" s="4">
-        <v>910</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1971,27 +1956,27 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D60" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="D61" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1999,10 +1984,10 @@
         <v>199</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -2010,30 +1995,30 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D63" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>200</v>
-      </c>
       <c r="D64" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2041,55 +2026,55 @@
         <v>203</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D65" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D66" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>206</v>
+        <v>60</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>204</v>
+        <v>61</v>
       </c>
       <c r="D67" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D68" s="4">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,10 +2082,10 @@
         <v>129</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>130</v>
@@ -2108,30 +2093,30 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>132</v>
+        <v>210</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D71" s="4">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2139,80 +2124,80 @@
         <v>193</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D72" s="4">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D73" s="4">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="D74" s="4">
-        <v>1174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D75" s="4">
-        <v>211</v>
+        <v>132</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>135</v>
+        <v>64</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="D77" s="4">
         <v>1167</v>
@@ -2220,16 +2205,16 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="D78" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2237,55 +2222,55 @@
         <v>67</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D79" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="D80" s="4">
-        <v>819</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="D81" s="4">
-        <v>553</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D82" s="4">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2293,27 +2278,27 @@
         <v>73</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D83" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D84" s="4">
-        <v>87</v>
+        <v>72</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2321,111 +2306,111 @@
         <v>138</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>139</v>
+      <c r="D85" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D86" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D87" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D88" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D89" s="4">
-        <v>695</v>
+        <v>141</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>111</v>
+        <v>79</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D91" s="4">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>111</v>
+        <v>81</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2433,13 +2418,13 @@
         <v>82</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D93" s="4">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2447,69 +2432,69 @@
         <v>84</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D94" s="4">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D95" s="4">
-        <v>107</v>
+        <v>986</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="D96" s="4">
-        <v>986</v>
+        <v>437</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>155</v>
       </c>
       <c r="D97" s="4">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="D98" s="4">
-        <v>449</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2517,111 +2502,111 @@
         <v>88</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D99" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D100" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D101" s="4">
-        <v>799</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D102" s="4">
-        <v>1127</v>
+        <v>569</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D103" s="4">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="D104" s="4">
-        <v>762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>177</v>
+        <v>94</v>
       </c>
       <c r="D105" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D106" s="4">
-        <v>211</v>
+        <v>146</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2629,104 +2614,85 @@
         <v>147</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>148</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="D108" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D109" s="4">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>153</v>
+      <c r="D110" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D112" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D112" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D112">
-      <sortCondition ref="A1:A112"/>
+  <autoFilter ref="A1:D111" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D111">
+      <sortCondition ref="A1:A111"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="36">
+    <cfRule type="expression" dxfId="1" priority="36">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D70 A72:D112">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D111">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:D71">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C06931-BB9C-490B-9ECE-4860D2F7E94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6C0C80-7EA0-4766-94B8-10822E4C1C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -602,9 +602,6 @@
     <t>LIMPADOR MULTIUSO - 500ML - 500ML</t>
   </si>
   <si>
-    <t>LIMPADOR MULTIUSO - CIF</t>
-  </si>
-  <si>
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
@@ -672,6 +669,9 @@
   </si>
   <si>
     <t>S080026</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
   </si>
 </sst>
 </file>
@@ -779,7 +779,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1113,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,7 +1164,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>159</v>
@@ -1169,7 +1178,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>160</v>
@@ -1211,13 +1220,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D7" s="4">
         <v>1208</v>
@@ -1799,7 +1808,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>160</v>
@@ -1925,7 +1934,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>160</v>
@@ -1934,7 +1943,7 @@
         <v>55</v>
       </c>
       <c r="D58" s="4">
-        <v>910</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1967,13 +1976,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1981,13 +1990,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -1995,13 +2004,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -2009,13 +2018,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="D64" s="4">
         <v>33</v>
@@ -2023,13 +2032,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D65" s="4">
         <v>32</v>
@@ -2037,13 +2046,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D66" s="4">
         <v>31</v>
@@ -2093,13 +2102,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="4">
         <v>1181</v>
@@ -2107,13 +2116,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="D71" s="4">
         <v>1172</v>
@@ -2121,13 +2130,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D72" s="4">
         <v>1173</v>
@@ -2135,13 +2144,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D73" s="4">
         <v>1174</v>
@@ -2191,7 +2200,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>160</v>
@@ -2443,7 +2452,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>163</v>
@@ -2457,7 +2466,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>163</v>
@@ -2625,7 +2634,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>159</v>
@@ -2686,13 +2695,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="36">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D111">
+  <conditionalFormatting sqref="A2:D57 A59:D111">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:D58">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6C0C80-7EA0-4766-94B8-10822E4C1C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3095375E-3533-4449-B545-9F0CA0D58D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="208">
   <si>
     <t>Complemento</t>
   </si>
@@ -260,9 +260,6 @@
     <t>S020025</t>
   </si>
   <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 30MM</t>
-  </si>
-  <si>
     <t>S200035</t>
   </si>
   <si>
@@ -447,12 +444,6 @@
   </si>
   <si>
     <t>PAPEL TOALHA INTERFOLHADO - 1000 FLS</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
-  </si>
-  <si>
-    <t>88</t>
   </si>
   <si>
     <t>PILHA - AA</t>
@@ -779,16 +770,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1120,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:D58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1150,13 +1132,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1164,13 +1146,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="6">
         <v>0.5</v>
@@ -1178,10 +1160,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1192,13 +1174,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D5" s="4">
         <v>53</v>
@@ -1206,27 +1188,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D7" s="4">
         <v>1208</v>
@@ -1234,16 +1216,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1251,7 +1233,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1262,10 +1244,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -1276,10 +1258,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
@@ -1293,7 +1275,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1307,7 +1289,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1321,7 +1303,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>10</v>
@@ -1335,7 +1317,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1349,7 +1331,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
@@ -1360,16 +1342,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1377,7 +1359,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -1391,7 +1373,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -1402,10 +1384,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>17</v>
@@ -1419,7 +1401,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1433,7 +1415,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
@@ -1447,7 +1429,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1458,13 +1440,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D24" s="4">
         <v>904</v>
@@ -1472,24 +1454,24 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>25</v>
@@ -1500,13 +1482,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
@@ -1514,10 +1496,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>26</v>
@@ -1531,7 +1513,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
@@ -1542,13 +1524,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D30" s="4">
         <v>1176</v>
@@ -1556,13 +1538,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31" s="4">
         <v>1177</v>
@@ -1570,13 +1552,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="4">
         <v>1178</v>
@@ -1584,13 +1566,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D33" s="4">
         <v>1179</v>
@@ -1601,7 +1583,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>30</v>
@@ -1612,16 +1594,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1629,21 +1611,21 @@
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>33</v>
@@ -1657,7 +1639,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
@@ -1671,7 +1653,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>37</v>
@@ -1685,7 +1667,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>37</v>
@@ -1699,7 +1681,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>37</v>
@@ -1713,7 +1695,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>37</v>
@@ -1724,27 +1706,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1755,7 +1737,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>42</v>
@@ -1769,7 +1751,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>42</v>
@@ -1780,27 +1762,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1808,10 +1790,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>44</v>
@@ -1825,7 +1807,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>46</v>
@@ -1839,7 +1821,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>48</v>
@@ -1853,7 +1835,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>50</v>
@@ -1864,13 +1846,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1878,13 +1860,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D54" s="4">
         <v>1164</v>
@@ -1895,7 +1877,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>52</v>
@@ -1909,7 +1891,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>54</v>
@@ -1920,10 +1902,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>55</v>
@@ -1934,10 +1916,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>55</v>
@@ -1951,7 +1933,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>57</v>
@@ -1965,7 +1947,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>59</v>
@@ -1976,13 +1958,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1990,13 +1972,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -2004,13 +1986,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -2018,13 +2000,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D64" s="4">
         <v>33</v>
@@ -2032,13 +2014,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D65" s="4">
         <v>32</v>
@@ -2046,13 +2028,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D66" s="4">
         <v>31</v>
@@ -2063,7 +2045,7 @@
         <v>60</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>61</v>
@@ -2074,41 +2056,41 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D70" s="4">
         <v>1181</v>
@@ -2116,13 +2098,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D71" s="4">
         <v>1172</v>
@@ -2130,13 +2112,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D72" s="4">
         <v>1173</v>
@@ -2144,13 +2126,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D73" s="4">
         <v>1174</v>
@@ -2161,7 +2143,7 @@
         <v>62</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>63</v>
@@ -2172,24 +2154,24 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C75" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>64</v>
@@ -2200,13 +2182,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D77" s="4">
         <v>1167</v>
@@ -2217,7 +2199,7 @@
         <v>65</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>66</v>
@@ -2231,7 +2213,7 @@
         <v>67</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>66</v>
@@ -2245,7 +2227,7 @@
         <v>68</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>69</v>
@@ -2256,10 +2238,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>70</v>
@@ -2273,7 +2255,7 @@
         <v>71</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>72</v>
@@ -2284,16 +2266,16 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="D83" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2301,94 +2283,94 @@
         <v>136</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>137</v>
+        <v>73</v>
+      </c>
+      <c r="D84" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D85" s="4">
-        <v>55</v>
+        <v>994</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D86" s="4">
-        <v>54</v>
+        <v>695</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D87" s="4">
-        <v>994</v>
+        <v>138</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D88" s="4">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="D89" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2396,170 +2378,170 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>109</v>
+        <v>82</v>
+      </c>
+      <c r="D91" s="4">
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D92" s="4">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D93" s="4">
-        <v>53</v>
+        <v>986</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="D94" s="4">
-        <v>107</v>
+        <v>437</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="D95" s="4">
-        <v>986</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>195</v>
+        <v>85</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="D96" s="4">
-        <v>437</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" s="4">
         <v>163</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D97" s="4">
-        <v>449</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D98" s="4">
-        <v>170</v>
+        <v>799</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D99" s="4">
-        <v>163</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D100" s="4">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D101" s="4">
-        <v>1127</v>
+        <v>762</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="D102" s="4">
-        <v>569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2567,80 +2549,80 @@
         <v>92</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D103" s="4">
-        <v>762</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D104" s="4">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D105" s="4">
-        <v>211</v>
+        <v>145</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C107" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
@@ -2648,65 +2630,32 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D110" s="4">
+        <v>95</v>
+      </c>
+      <c r="D109" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D111" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D111" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D111">
-      <sortCondition ref="A1:A111"/>
+  <autoFilter ref="A1:D109" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D109">
+      <sortCondition ref="A1:A109"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="37">
+    <cfRule type="expression" dxfId="1" priority="37">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D57 A59:D111">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D109">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:D58">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3095375E-3533-4449-B545-9F0CA0D58D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71357F00-C515-43C7-A2F2-A5149275D4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="207">
   <si>
     <t>Complemento</t>
   </si>
@@ -245,9 +245,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO - 300MT</t>
-  </si>
-  <si>
     <t>S010056</t>
   </si>
   <si>
@@ -518,9 +515,6 @@
     <t>PC C/10</t>
   </si>
   <si>
-    <t>PC C/8</t>
-  </si>
-  <si>
     <t>PC</t>
   </si>
   <si>
@@ -663,6 +657,9 @@
   </si>
   <si>
     <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 300MT PC C/8</t>
   </si>
 </sst>
 </file>
@@ -770,7 +767,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1105,7 +1111,7 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:XFD83"/>
+      <selection activeCell="A80" sqref="A80:D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1132,13 +1138,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1146,13 +1152,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="6">
         <v>0.5</v>
@@ -1160,10 +1166,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1174,13 +1180,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D5" s="4">
         <v>53</v>
@@ -1188,27 +1194,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D7" s="4">
         <v>1208</v>
@@ -1216,16 +1222,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1233,7 +1239,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1244,10 +1250,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -1258,10 +1264,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
@@ -1275,7 +1281,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1289,7 +1295,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1303,7 +1309,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>10</v>
@@ -1317,7 +1323,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1331,7 +1337,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
@@ -1342,16 +1348,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1359,7 +1365,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -1373,7 +1379,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -1384,10 +1390,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>17</v>
@@ -1401,7 +1407,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1415,7 +1421,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
@@ -1429,7 +1435,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1440,13 +1446,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D24" s="4">
         <v>904</v>
@@ -1454,24 +1460,24 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>25</v>
@@ -1482,13 +1488,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
@@ -1496,10 +1502,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>26</v>
@@ -1513,7 +1519,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
@@ -1524,13 +1530,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D30" s="4">
         <v>1176</v>
@@ -1538,13 +1544,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" s="4">
         <v>1177</v>
@@ -1552,13 +1558,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D32" s="4">
         <v>1178</v>
@@ -1566,13 +1572,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D33" s="4">
         <v>1179</v>
@@ -1583,7 +1589,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>30</v>
@@ -1594,16 +1600,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,21 +1617,21 @@
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>33</v>
@@ -1639,7 +1645,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
@@ -1653,7 +1659,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>37</v>
@@ -1667,7 +1673,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>37</v>
@@ -1681,7 +1687,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>37</v>
@@ -1695,7 +1701,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>37</v>
@@ -1706,27 +1712,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1737,7 +1743,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>42</v>
@@ -1751,7 +1757,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>42</v>
@@ -1762,27 +1768,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1790,10 +1796,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>44</v>
@@ -1807,7 +1813,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>46</v>
@@ -1821,7 +1827,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>48</v>
@@ -1835,7 +1841,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>50</v>
@@ -1846,13 +1852,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1860,13 +1866,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D54" s="4">
         <v>1164</v>
@@ -1877,7 +1883,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>52</v>
@@ -1891,7 +1897,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>54</v>
@@ -1902,10 +1908,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>55</v>
@@ -1916,10 +1922,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>55</v>
@@ -1933,7 +1939,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>57</v>
@@ -1947,7 +1953,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>59</v>
@@ -1958,13 +1964,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1972,13 +1978,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -1986,13 +1992,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -2000,13 +2006,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D64" s="4">
         <v>33</v>
@@ -2014,13 +2020,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" s="4">
         <v>32</v>
@@ -2028,13 +2034,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D66" s="4">
         <v>31</v>
@@ -2045,7 +2051,7 @@
         <v>60</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>61</v>
@@ -2056,41 +2062,41 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="4">
         <v>1181</v>
@@ -2098,13 +2104,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D71" s="4">
         <v>1172</v>
@@ -2112,13 +2118,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D72" s="4">
         <v>1173</v>
@@ -2126,13 +2132,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D73" s="4">
         <v>1174</v>
@@ -2143,7 +2149,7 @@
         <v>62</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>63</v>
@@ -2154,24 +2160,24 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>64</v>
@@ -2182,13 +2188,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D77" s="4">
         <v>1167</v>
@@ -2199,7 +2205,7 @@
         <v>65</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>66</v>
@@ -2213,7 +2219,7 @@
         <v>67</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>66</v>
@@ -2224,27 +2230,27 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="D80" s="4">
-        <v>553</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D81" s="4">
         <v>72</v>
@@ -2252,13 +2258,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D82" s="4">
         <v>86</v>
@@ -2266,13 +2272,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D83" s="4">
         <v>55</v>
@@ -2280,13 +2286,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D84" s="4">
         <v>54</v>
@@ -2294,13 +2300,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D85" s="4">
         <v>994</v>
@@ -2308,13 +2314,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D86" s="4">
         <v>695</v>
@@ -2322,27 +2328,27 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="D87" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2350,27 +2356,27 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="D89" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2378,13 +2384,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D91" s="4">
         <v>53</v>
@@ -2392,13 +2398,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D92" s="4">
         <v>107</v>
@@ -2406,13 +2412,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D93" s="4">
         <v>986</v>
@@ -2420,13 +2426,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D94" s="4">
         <v>437</v>
@@ -2434,13 +2440,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="D95" s="4">
         <v>449</v>
@@ -2448,13 +2454,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D96" s="4">
         <v>170</v>
@@ -2462,13 +2468,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D97" s="4">
         <v>163</v>
@@ -2476,13 +2482,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D98" s="4">
         <v>799</v>
@@ -2490,13 +2496,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D99" s="4">
         <v>1127</v>
@@ -2504,13 +2510,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D100" s="4">
         <v>569</v>
@@ -2518,13 +2524,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D101" s="4">
         <v>762</v>
@@ -2532,13 +2538,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
@@ -2546,13 +2552,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D103" s="4">
         <v>211</v>
@@ -2560,41 +2566,41 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="D104" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="D105" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2602,27 +2608,27 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C107" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
@@ -2630,13 +2636,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2649,13 +2655,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="37">
+    <cfRule type="expression" dxfId="2" priority="38">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D109">
+  <conditionalFormatting sqref="A2:D79 A81:D109">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80:D80">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A80))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71357F00-C515-43C7-A2F2-A5149275D4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84B03BA-8AF2-4539-9CCC-67BEC5A451F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -182,9 +182,6 @@
     <t>S020056</t>
   </si>
   <si>
-    <t>GRAMPO - 26/6 - 26/6</t>
-  </si>
-  <si>
     <t>S020057</t>
   </si>
   <si>
@@ -660,6 +657,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
+  </si>
+  <si>
+    <t>GRAMPO 26/6 P/ GRAMPEADOR - 1000UN</t>
   </si>
 </sst>
 </file>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:D80"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1138,13 +1138,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1152,13 +1152,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="6">
         <v>0.5</v>
@@ -1166,10 +1166,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D5" s="4">
         <v>53</v>
@@ -1194,27 +1194,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="D7" s="4">
         <v>1208</v>
@@ -1222,16 +1222,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1239,7 +1239,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -1264,10 +1264,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
@@ -1281,7 +1281,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1295,7 +1295,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>10</v>
@@ -1323,7 +1323,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1337,7 +1337,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
@@ -1348,16 +1348,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1365,7 +1365,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -1379,7 +1379,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -1390,10 +1390,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>17</v>
@@ -1407,7 +1407,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1421,7 +1421,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
@@ -1435,7 +1435,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1446,13 +1446,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D24" s="4">
         <v>904</v>
@@ -1460,24 +1460,24 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>25</v>
@@ -1488,13 +1488,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
@@ -1502,10 +1502,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>26</v>
@@ -1519,7 +1519,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
@@ -1530,13 +1530,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D30" s="4">
         <v>1176</v>
@@ -1544,13 +1544,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D31" s="4">
         <v>1177</v>
@@ -1558,13 +1558,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D32" s="4">
         <v>1178</v>
@@ -1572,13 +1572,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D33" s="4">
         <v>1179</v>
@@ -1589,7 +1589,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>30</v>
@@ -1600,16 +1600,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1617,21 +1617,21 @@
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>33</v>
@@ -1645,7 +1645,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
@@ -1659,7 +1659,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>37</v>
@@ -1673,7 +1673,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>37</v>
@@ -1687,7 +1687,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>37</v>
@@ -1701,7 +1701,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>37</v>
@@ -1712,27 +1712,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1743,7 +1743,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>42</v>
@@ -1757,7 +1757,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>42</v>
@@ -1768,27 +1768,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>44</v>
@@ -1813,7 +1813,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>46</v>
@@ -1824,27 +1824,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D51" s="4">
-        <v>80</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1852,13 +1852,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1866,13 +1866,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D54" s="4">
         <v>1164</v>
@@ -1880,13 +1880,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D55" s="4">
         <v>40</v>
@@ -1894,13 +1894,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D56" s="4">
         <v>103</v>
@@ -1908,13 +1908,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" s="4">
         <v>103</v>
@@ -1922,13 +1922,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D58" s="4">
         <v>1166</v>
@@ -1936,13 +1936,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1950,13 +1950,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D60" s="4">
         <v>745</v>
@@ -1964,13 +1964,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1978,13 +1978,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -2006,13 +2006,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D64" s="4">
         <v>33</v>
@@ -2020,13 +2020,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="4">
         <v>32</v>
@@ -2034,13 +2034,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="4">
         <v>31</v>
@@ -2048,13 +2048,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D67" s="4">
         <v>2</v>
@@ -2062,41 +2062,41 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="D70" s="4">
         <v>1181</v>
@@ -2104,13 +2104,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="D71" s="4">
         <v>1172</v>
@@ -2118,13 +2118,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D72" s="4">
         <v>1173</v>
@@ -2132,13 +2132,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D73" s="4">
         <v>1174</v>
@@ -2146,13 +2146,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D74" s="4">
         <v>211</v>
@@ -2160,27 +2160,27 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C75" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D76" s="4">
         <v>1167</v>
@@ -2188,13 +2188,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D77" s="4">
         <v>1167</v>
@@ -2202,13 +2202,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D78" s="4">
         <v>820</v>
@@ -2216,13 +2216,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D79" s="4">
         <v>819</v>
@@ -2230,13 +2230,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D80" s="4">
         <v>1394</v>
@@ -2244,13 +2244,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D81" s="4">
         <v>72</v>
@@ -2258,13 +2258,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D82" s="4">
         <v>86</v>
@@ -2272,13 +2272,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D83" s="4">
         <v>55</v>
@@ -2286,13 +2286,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D84" s="4">
         <v>54</v>
@@ -2300,13 +2300,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D85" s="4">
         <v>994</v>
@@ -2314,13 +2314,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D86" s="4">
         <v>695</v>
@@ -2328,27 +2328,27 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="D87" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2356,27 +2356,27 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="D89" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2384,13 +2384,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D91" s="4">
         <v>53</v>
@@ -2398,13 +2398,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D92" s="4">
         <v>107</v>
@@ -2412,13 +2412,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D93" s="4">
         <v>986</v>
@@ -2426,13 +2426,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D94" s="4">
         <v>437</v>
@@ -2440,13 +2440,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="D95" s="4">
         <v>449</v>
@@ -2454,13 +2454,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D96" s="4">
         <v>170</v>
@@ -2468,13 +2468,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D97" s="4">
         <v>163</v>
@@ -2482,13 +2482,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D98" s="4">
         <v>799</v>
@@ -2496,13 +2496,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D99" s="4">
         <v>1127</v>
@@ -2510,13 +2510,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D100" s="4">
         <v>569</v>
@@ -2524,13 +2524,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D101" s="4">
         <v>762</v>
@@ -2538,13 +2538,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
@@ -2552,13 +2552,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D103" s="4">
         <v>211</v>
@@ -2566,41 +2566,41 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="D104" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="D105" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2608,27 +2608,27 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C107" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
@@ -2636,13 +2636,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2655,18 +2655,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="38">
+    <cfRule type="expression" dxfId="2" priority="39">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D79 A81:D109">
+  <conditionalFormatting sqref="A2:D50 A52:D109">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80:D80">
+  <conditionalFormatting sqref="A51:D51">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A80))&gt;0</formula>
+      <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84B03BA-8AF2-4539-9CCC-67BEC5A451F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E701BB51-DCF7-445A-90A9-F931923E1834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="199">
   <si>
     <t>Complemento</t>
   </si>
@@ -83,9 +83,6 @@
     <t>S020082</t>
   </si>
   <si>
-    <t>CALCULADORA PORTATIL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020083</t>
   </si>
   <si>
@@ -98,15 +95,9 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - PRETO</t>
   </si>
   <si>
-    <t>CLIPE 2/0 COM 100UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020087</t>
   </si>
   <si>
-    <t>CLIPE 8/0 COM 25UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020090</t>
   </si>
   <si>
@@ -128,24 +119,15 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050018</t>
   </si>
   <si>
-    <t>ESPANADOR - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110018</t>
   </si>
   <si>
     <t>S010018</t>
   </si>
   <si>
-    <t>ESTILETE C/ LAMINA 18MM - LARGA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020046</t>
   </si>
   <si>
@@ -185,9 +167,6 @@
     <t>S020057</t>
   </si>
   <si>
-    <t>LACRE DE SEGURANÇA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050012</t>
   </si>
   <si>
@@ -206,9 +185,6 @@
     <t>S010027</t>
   </si>
   <si>
-    <t>LIVRO ATA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020063</t>
   </si>
   <si>
@@ -266,15 +242,9 @@
     <t>PORTA ETIQUETA - 60CM</t>
   </si>
   <si>
-    <t>PROTOCOLO DE CORRESPONDENCIA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020038</t>
   </si>
   <si>
-    <t>RODO - UNICA</t>
-  </si>
-  <si>
     <t>S110029</t>
   </si>
   <si>
@@ -317,9 +287,6 @@
     <t>S040046</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110037</t>
   </si>
   <si>
@@ -338,9 +305,6 @@
     <t>S010009</t>
   </si>
   <si>
-    <t>LANCETAS - UNICA</t>
-  </si>
-  <si>
     <t>S150191</t>
   </si>
   <si>
@@ -356,39 +320,21 @@
     <t>S020071</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>BALDE - 10L - 10L</t>
   </si>
   <si>
     <t>S110003</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>BOBINA P/ PONTO ELETRONICO - 57X300 (GRANDE)</t>
   </si>
   <si>
     <t>BOBINA P/ PONTO ELETRONICO - 57X40 (PEQUENA)</t>
   </si>
   <si>
-    <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
-  </si>
-  <si>
-    <t>S150295</t>
-  </si>
-  <si>
     <t>COLETOR PERFURO-CORTANTE - 7LTS</t>
   </si>
   <si>
-    <t>903</t>
-  </si>
-  <si>
     <t>COPO DESCARTAVEL C/100 UND - 150ML - 150ML</t>
   </si>
   <si>
@@ -404,36 +350,21 @@
     <t>S020041</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>FITA DUPLA FACE - UNICA</t>
-  </si>
-  <si>
     <t>S230009</t>
   </si>
   <si>
     <t>MARCADOR QUADRO BRANCO - PRETO - PRETO</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - VERMELHO - VERMELHO</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>PA PLASTICA P/ LIXO - CABO LONGO</t>
   </si>
   <si>
     <t>S110020</t>
   </si>
   <si>
-    <t>591</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -446,24 +377,15 @@
     <t>PILHA - AAA</t>
   </si>
   <si>
-    <t>PRANCHETA A4 - UNICA</t>
-  </si>
-  <si>
     <t>S020036</t>
   </si>
   <si>
-    <t>QUADRO DE AVISO - UNICA</t>
-  </si>
-  <si>
     <t>S020118</t>
   </si>
   <si>
     <t>SACOLA PLASTICA - 25X30</t>
   </si>
   <si>
-    <t>TESOURA ESCOLAR - UNICA</t>
-  </si>
-  <si>
     <t>S020007</t>
   </si>
   <si>
@@ -494,9 +416,6 @@
     <t>S010050</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
-  </si>
-  <si>
     <t>S050008</t>
   </si>
   <si>
@@ -527,15 +446,9 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHA</t>
   </si>
   <si>
-    <t>EXTRATOR DE GRAMPOS - UNICA</t>
-  </si>
-  <si>
     <t>S020048</t>
   </si>
   <si>
-    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
-  </si>
-  <si>
     <t>S150189</t>
   </si>
   <si>
@@ -545,9 +458,6 @@
     <t>S010002</t>
   </si>
   <si>
-    <t>TAPETE - UNICA</t>
-  </si>
-  <si>
     <t>S110059</t>
   </si>
   <si>
@@ -644,9 +554,6 @@
     <t>SACO P/ LIXO INFECTANTE - 50L</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
-  </si>
-  <si>
     <t>MASCARA DESCARTAVEL - TNT</t>
   </si>
   <si>
@@ -660,6 +567,75 @@
   </si>
   <si>
     <t>GRAMPO 26/6 P/ GRAMPEADOR - 1000UN</t>
+  </si>
+  <si>
+    <t>CALCULADORA PORTATIL - 12 DIGITOS</t>
+  </si>
+  <si>
+    <t>CANETA DETECTA DINHEIRO FALSO - LUMINOSA - LUMINOSA</t>
+  </si>
+  <si>
+    <t>S020133</t>
+  </si>
+  <si>
+    <t>CLIPE 2/0 - 100UND</t>
+  </si>
+  <si>
+    <t>CLIPE 8/0 - 25UND</t>
+  </si>
+  <si>
+    <t>CURATIVO ADESIVO EM DISCO - 500 UND</t>
+  </si>
+  <si>
+    <t>SACOLA DE PAPEL PERSONALIZADA - 22X25</t>
+  </si>
+  <si>
+    <t>ESPANADOR - PENA</t>
+  </si>
+  <si>
+    <t>ESTILETE C/ LAMINA - LARGA - 18MM</t>
+  </si>
+  <si>
+    <t>EXTRATOR DE GRAMPOS - METALICO</t>
+  </si>
+  <si>
+    <t>FITA DUPLA FACE - 19mm x 3m</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE) - 1000M</t>
+  </si>
+  <si>
+    <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
+  </si>
+  <si>
+    <t>LANCETAS - 100UN - 100UN</t>
+  </si>
+  <si>
+    <t>LIVRO ATA - 100FLS</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - MDF A4</t>
+  </si>
+  <si>
+    <t>PROTOCOLO DE CORRESPONDENCIA - 96 FLS</t>
+  </si>
+  <si>
+    <t>QUADRO DE AVISO - 90X60CM - 90X60CM</t>
+  </si>
+  <si>
+    <t>RODO - C/ CABO 40CM</t>
+  </si>
+  <si>
+    <t>TAPETE - 1,20x0,80</t>
+  </si>
+  <si>
+    <t>TESOURA ESCOLAR - 4"</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - ON CALL</t>
+  </si>
+  <si>
+    <t>VASSOURA - PIASSAVA - PIASSAVA</t>
   </si>
 </sst>
 </file>
@@ -767,16 +743,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1110,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:D51"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1138,13 +1105,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1152,13 +1119,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D3" s="6">
         <v>0.5</v>
@@ -1166,10 +1133,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1180,13 +1147,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D5" s="4">
         <v>53</v>
@@ -1194,27 +1161,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="D7" s="4">
         <v>1208</v>
@@ -1222,16 +1189,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>109</v>
+        <v>94</v>
+      </c>
+      <c r="D8" s="6">
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1239,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1250,10 +1217,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -1264,10 +1231,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
@@ -1281,7 +1248,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1295,7 +1262,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1309,7 +1276,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>10</v>
@@ -1323,7 +1290,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1334,41 +1301,41 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="D16" s="4">
-        <v>1</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>106</v>
+        <v>178</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1184</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -1376,13 +1343,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
@@ -1390,13 +1357,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="4">
         <v>4</v>
@@ -1404,41 +1371,41 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D23" s="4">
         <v>52</v>
@@ -1446,13 +1413,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D24" s="4">
         <v>904</v>
@@ -1460,27 +1427,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>115</v>
+        <v>87</v>
+      </c>
+      <c r="D25" s="6">
+        <v>903</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D26" s="4">
         <v>109</v>
@@ -1488,27 +1455,27 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="D27" s="6">
-        <v>1</v>
+        <v>874</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D28" s="4">
         <v>105</v>
@@ -1516,13 +1483,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D29" s="4">
         <v>103</v>
@@ -1530,13 +1497,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D30" s="4">
         <v>1176</v>
@@ -1544,13 +1511,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D31" s="4">
         <v>1177</v>
@@ -1558,13 +1525,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D32" s="4">
         <v>1178</v>
@@ -1572,13 +1539,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D33" s="4">
         <v>1179</v>
@@ -1586,55 +1553,55 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>121</v>
+        <v>102</v>
+      </c>
+      <c r="D35" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>106</v>
+        <v>27</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1454</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D37" s="4">
         <v>1162</v>
@@ -1642,27 +1609,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D38" s="4">
-        <v>1</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D39" s="4">
         <v>899</v>
@@ -1670,13 +1637,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D40" s="4">
         <v>896</v>
@@ -1684,13 +1651,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D41" s="4">
         <v>900</v>
@@ -1698,13 +1665,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D42" s="4">
         <v>898</v>
@@ -1712,27 +1679,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>106</v>
+        <v>135</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1456</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1740,13 +1707,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D45" s="4">
         <v>166</v>
@@ -1754,13 +1721,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D46" s="4">
         <v>167</v>
@@ -1768,41 +1735,41 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="D47" s="6">
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="D48" s="4">
-        <v>1</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D49" s="4">
         <v>448</v>
@@ -1810,13 +1777,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D50" s="4">
         <v>80</v>
@@ -1824,13 +1791,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D51" s="4">
         <v>1395</v>
@@ -1838,41 +1805,41 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D52" s="4">
-        <v>1</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D54" s="4">
         <v>1164</v>
@@ -1880,13 +1847,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D55" s="4">
         <v>40</v>
@@ -1894,13 +1861,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D56" s="4">
         <v>103</v>
@@ -1908,13 +1875,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D57" s="4">
         <v>103</v>
@@ -1922,13 +1889,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D58" s="4">
         <v>1166</v>
@@ -1936,27 +1903,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D59" s="4">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D60" s="4">
         <v>745</v>
@@ -1964,13 +1931,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1978,13 +1945,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -1992,13 +1959,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -2006,13 +1973,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="D64" s="4">
         <v>33</v>
@@ -2020,13 +1987,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="D65" s="4">
         <v>32</v>
@@ -2034,13 +2001,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="D66" s="4">
         <v>31</v>
@@ -2048,13 +2015,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D67" s="4">
         <v>2</v>
@@ -2062,41 +2029,41 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>125</v>
+        <v>52</v>
+      </c>
+      <c r="D68" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>127</v>
+        <v>52</v>
+      </c>
+      <c r="D69" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="D70" s="4">
         <v>1181</v>
@@ -2104,13 +2071,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="D71" s="4">
         <v>1172</v>
@@ -2118,13 +2085,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="D72" s="4">
         <v>1173</v>
@@ -2132,13 +2099,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="D73" s="4">
         <v>1174</v>
@@ -2146,13 +2113,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D74" s="4">
         <v>211</v>
@@ -2160,27 +2127,27 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>130</v>
+        <v>107</v>
+      </c>
+      <c r="D75" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D76" s="4">
         <v>1167</v>
@@ -2188,13 +2155,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="D77" s="4">
         <v>1167</v>
@@ -2202,13 +2169,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D78" s="4">
         <v>820</v>
@@ -2216,13 +2183,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D79" s="4">
         <v>819</v>
@@ -2230,13 +2197,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D80" s="4">
         <v>1394</v>
@@ -2244,13 +2211,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D81" s="4">
         <v>72</v>
@@ -2258,13 +2225,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D82" s="4">
         <v>86</v>
@@ -2272,13 +2239,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D83" s="4">
         <v>55</v>
@@ -2286,13 +2253,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D84" s="4">
         <v>54</v>
@@ -2300,13 +2267,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D85" s="4">
         <v>994</v>
@@ -2314,13 +2281,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D86" s="4">
         <v>695</v>
@@ -2328,69 +2295,69 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c r="D87" s="6">
+        <v>1457</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D88" s="4">
-        <v>1</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
+      </c>
+      <c r="D89" s="6">
+        <v>1030</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D90" s="4">
-        <v>1</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D91" s="4">
         <v>53</v>
@@ -2398,13 +2365,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D92" s="4">
         <v>107</v>
@@ -2412,13 +2379,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D93" s="4">
         <v>986</v>
@@ -2426,13 +2393,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="D94" s="4">
         <v>437</v>
@@ -2440,13 +2407,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="D95" s="4">
         <v>449</v>
@@ -2454,13 +2421,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D96" s="4">
         <v>170</v>
@@ -2468,13 +2435,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D97" s="4">
         <v>163</v>
@@ -2482,13 +2449,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D98" s="4">
         <v>799</v>
@@ -2496,13 +2463,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D99" s="4">
         <v>1127</v>
@@ -2510,13 +2477,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D100" s="4">
         <v>569</v>
@@ -2524,13 +2491,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D101" s="4">
         <v>762</v>
@@ -2538,27 +2505,27 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="D102" s="4">
-        <v>1</v>
+        <v>878</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D103" s="4">
         <v>211</v>
@@ -2566,107 +2533,97 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>106</v>
+        <v>115</v>
+      </c>
+      <c r="D104" s="6">
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>105</v>
+        <v>117</v>
+      </c>
+      <c r="D105" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D106" s="4">
-        <v>1</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="D108" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D109" s="4">
-        <v>1</v>
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D109" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D109">
-      <sortCondition ref="A1:A109"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="39">
+    <cfRule type="expression" dxfId="1" priority="39">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D50 A52:D109">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D109">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:D51">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E701BB51-DCF7-445A-90A9-F931923E1834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B96CA1C-5DB5-4169-98F9-43D737F12CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$108</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="198">
   <si>
     <t>Complemento</t>
   </si>
@@ -558,9 +558,6 @@
   </si>
   <si>
     <t>S080026</t>
-  </si>
-  <si>
-    <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
@@ -1075,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,7 +1298,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>128</v>
@@ -1315,13 +1312,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D17" s="6">
         <v>1184</v>
@@ -1371,7 +1368,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>127</v>
@@ -1385,7 +1382,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>127</v>
@@ -1455,7 +1452,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>128</v>
@@ -1553,7 +1550,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>128</v>
@@ -1581,7 +1578,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>128</v>
@@ -1609,7 +1606,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>128</v>
@@ -1679,7 +1676,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>128</v>
@@ -1735,7 +1732,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>128</v>
@@ -1749,7 +1746,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>128</v>
@@ -1791,7 +1788,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>127</v>
@@ -1805,7 +1802,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>128</v>
@@ -1819,7 +1816,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>127</v>
@@ -1889,49 +1886,49 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D58" s="4">
-        <v>1166</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D59" s="4">
-        <v>70</v>
+        <v>745</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="D60" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>128</v>
@@ -1945,7 +1942,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>128</v>
@@ -1954,26 +1951,26 @@
         <v>161</v>
       </c>
       <c r="D62" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D63" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>128</v>
@@ -1982,12 +1979,12 @@
         <v>165</v>
       </c>
       <c r="D64" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>128</v>
@@ -1996,26 +1993,26 @@
         <v>165</v>
       </c>
       <c r="D65" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="D66" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>128</v>
@@ -2023,13 +2020,13 @@
       <c r="C67" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="4">
-        <v>2</v>
+      <c r="D67" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>128</v>
@@ -2038,40 +2035,40 @@
         <v>52</v>
       </c>
       <c r="D68" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D69" s="6">
-        <v>4</v>
+        <v>172</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D70" s="4">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>128</v>
@@ -2080,12 +2077,12 @@
         <v>155</v>
       </c>
       <c r="D71" s="4">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>128</v>
@@ -2094,60 +2091,60 @@
         <v>155</v>
       </c>
       <c r="D72" s="4">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="D73" s="4">
-        <v>1174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D74" s="4">
-        <v>211</v>
+        <v>107</v>
+      </c>
+      <c r="D74" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D75" s="6">
-        <v>591</v>
+        <v>55</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="D76" s="4">
         <v>1167</v>
@@ -2155,21 +2152,21 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="D77" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>130</v>
@@ -2178,68 +2175,68 @@
         <v>57</v>
       </c>
       <c r="D78" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D79" s="4">
-        <v>819</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D80" s="4">
-        <v>1394</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D81" s="4">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D82" s="4">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>128</v>
@@ -2248,26 +2245,26 @@
         <v>63</v>
       </c>
       <c r="D83" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D84" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>128</v>
@@ -2276,21 +2273,21 @@
         <v>65</v>
       </c>
       <c r="D85" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D86" s="4">
-        <v>695</v>
+        <v>112</v>
+      </c>
+      <c r="D86" s="6">
+        <v>1457</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2301,10 +2298,10 @@
         <v>128</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D87" s="6">
-        <v>1457</v>
+        <v>67</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1182</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2315,10 +2312,10 @@
         <v>128</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D88" s="4">
-        <v>1182</v>
+        <v>113</v>
+      </c>
+      <c r="D88" s="6">
+        <v>1030</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2329,113 +2326,113 @@
         <v>128</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D89" s="6">
-        <v>1030</v>
+        <v>68</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1468</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D90" s="4">
-        <v>1468</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D91" s="4">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D92" s="4">
-        <v>107</v>
+        <v>986</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D93" s="4">
-        <v>986</v>
+        <v>437</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D94" s="4">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D95" s="4">
-        <v>449</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D96" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>128</v>
@@ -2444,26 +2441,26 @@
         <v>74</v>
       </c>
       <c r="D97" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D98" s="4">
-        <v>799</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>132</v>
@@ -2472,12 +2469,12 @@
         <v>77</v>
       </c>
       <c r="D99" s="4">
-        <v>1127</v>
+        <v>569</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>132</v>
@@ -2486,132 +2483,118 @@
         <v>77</v>
       </c>
       <c r="D100" s="4">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="D101" s="4">
-        <v>762</v>
+        <v>878</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="D102" s="4">
-        <v>878</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D103" s="4">
-        <v>211</v>
+        <v>115</v>
+      </c>
+      <c r="D103" s="6">
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D104" s="6">
-        <v>202</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D105" s="6">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="D105" s="4">
+        <v>1418</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D106" s="4">
-        <v>1418</v>
+        <v>119</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="D107" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="D108" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D109" s="4">
         <v>1458</v>
       </c>
     </row>
@@ -2621,7 +2604,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D109">
+  <conditionalFormatting sqref="A2:D108">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B96CA1C-5DB5-4169-98F9-43D737F12CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69619BF-666D-40C1-82DE-A421C7B7D824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -515,9 +515,6 @@
     <t>MOP - REFIL UMIDO</t>
   </si>
   <si>
-    <t>AGULHA 12X40MM - 100UN</t>
-  </si>
-  <si>
     <t>SACO P/ LIXO C/10UN - 30L</t>
   </si>
   <si>
@@ -633,6 +630,9 @@
   </si>
   <si>
     <t>VASSOURA - PIASSAVA - PIASSAVA</t>
+  </si>
+  <si>
+    <t>AGULHA IM - CALIBRE 40X1,20MM</t>
   </si>
 </sst>
 </file>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>127</v>
@@ -1125,7 +1125,7 @@
         <v>85</v>
       </c>
       <c r="D3" s="6">
-        <v>0.5</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1172,13 +1172,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D7" s="4">
         <v>1208</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>128</v>
@@ -1312,13 +1312,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="D17" s="6">
         <v>1184</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>127</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>127</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>128</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>128</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>128</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>128</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>128</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>128</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>128</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>127</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>128</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>127</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>128</v>
@@ -1914,13 +1914,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="D60" s="4">
         <v>33</v>
@@ -1928,13 +1928,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1942,13 +1942,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D62" s="4">
         <v>32</v>
@@ -1956,13 +1956,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="D63" s="4">
         <v>33</v>
@@ -1970,13 +1970,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D64" s="4">
         <v>32</v>
@@ -1984,13 +1984,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D65" s="4">
         <v>31</v>
@@ -2040,13 +2040,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D69" s="4">
         <v>1181</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>130</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>128</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>128</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>128</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>128</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>130</v>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>130</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>128</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>128</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>127</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>128</v>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69619BF-666D-40C1-82DE-A421C7B7D824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5385173B-A213-43D6-92F2-A1B59D18A42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1503,7 @@
         <v>100</v>
       </c>
       <c r="D30" s="4">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
         <v>100</v>
       </c>
       <c r="D31" s="4">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1531,7 +1531,7 @@
         <v>100</v>
       </c>
       <c r="D32" s="4">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1545,7 +1545,7 @@
         <v>100</v>
       </c>
       <c r="D33" s="4">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5385173B-A213-43D6-92F2-A1B59D18A42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1F6269-2D1F-4BF6-B7E4-A00F87E6512D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="200">
   <si>
     <t>Complemento</t>
   </si>
@@ -633,6 +633,12 @@
   </si>
   <si>
     <t>AGULHA IM - CALIBRE 40X1,20MM</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA - 200G - 200G</t>
+  </si>
+  <si>
+    <t>S010046</t>
   </si>
 </sst>
 </file>
@@ -1072,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,105 +2340,105 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="D90" s="4">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D91" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D92" s="4">
-        <v>986</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="D93" s="4">
-        <v>437</v>
+        <v>986</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D94" s="4">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="D95" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D96" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>128</v>
@@ -2441,26 +2447,26 @@
         <v>74</v>
       </c>
       <c r="D97" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D98" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>132</v>
@@ -2469,12 +2475,12 @@
         <v>77</v>
       </c>
       <c r="D99" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>132</v>
@@ -2483,118 +2489,132 @@
         <v>77</v>
       </c>
       <c r="D100" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="D101" s="4">
-        <v>878</v>
+        <v>762</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="D102" s="4">
-        <v>211</v>
+        <v>878</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D103" s="6">
-        <v>202</v>
+        <v>81</v>
+      </c>
+      <c r="D103" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D104" s="6">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D105" s="4">
-        <v>1418</v>
+        <v>117</v>
+      </c>
+      <c r="D105" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>120</v>
+        <v>90</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1418</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D107" s="4">
-        <v>15</v>
+        <v>119</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D108" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C108" s="4" t="s">
+      <c r="B109" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D109" s="4">
         <v>1458</v>
       </c>
     </row>
@@ -2604,7 +2624,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D108">
+  <conditionalFormatting sqref="A2:D109">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1F6269-2D1F-4BF6-B7E4-A00F87E6512D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E66450-EBBB-49C9-ABE5-500DA035C493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$110</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="202">
   <si>
     <t>Complemento</t>
   </si>
@@ -639,6 +639,12 @@
   </si>
   <si>
     <t>S010046</t>
+  </si>
+  <si>
+    <t>ESCOVA DE NYLON - VASO SANITARIO</t>
+  </si>
+  <si>
+    <t>S110017</t>
   </si>
 </sst>
 </file>
@@ -1078,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,49 +1604,49 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1162</v>
+        <v>201</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1449</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="4">
-        <v>1455</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D39" s="4">
-        <v>899</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>128</v>
@@ -1649,12 +1655,12 @@
         <v>31</v>
       </c>
       <c r="D40" s="4">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>128</v>
@@ -1663,12 +1669,12 @@
         <v>31</v>
       </c>
       <c r="D41" s="4">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>128</v>
@@ -1677,54 +1683,54 @@
         <v>31</v>
       </c>
       <c r="D42" s="4">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" s="6">
-        <v>1456</v>
+        <v>31</v>
+      </c>
+      <c r="D43" s="4">
+        <v>898</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D44" s="4">
-        <v>750</v>
+        <v>135</v>
+      </c>
+      <c r="D44" s="6">
+        <v>1456</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="D45" s="4">
-        <v>166</v>
+        <v>750</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>128</v>
@@ -1733,158 +1739,158 @@
         <v>36</v>
       </c>
       <c r="D46" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="6">
-        <v>272</v>
+        <v>36</v>
+      </c>
+      <c r="D47" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1157</v>
+        <v>103</v>
+      </c>
+      <c r="D48" s="6">
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="D49" s="4">
-        <v>448</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D50" s="4">
-        <v>80</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D51" s="4">
-        <v>1395</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D52" s="4">
-        <v>1416</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>120</v>
+        <v>42</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1416</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1164</v>
+        <v>88</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="D55" s="4">
-        <v>40</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D56" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D57" s="4">
         <v>103</v>
@@ -1892,49 +1898,49 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D58" s="4">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D59" s="4">
-        <v>745</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="D60" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>128</v>
@@ -1948,7 +1954,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>128</v>
@@ -1957,26 +1963,26 @@
         <v>160</v>
       </c>
       <c r="D62" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D63" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>128</v>
@@ -1985,12 +1991,12 @@
         <v>164</v>
       </c>
       <c r="D64" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>128</v>
@@ -1999,26 +2005,26 @@
         <v>164</v>
       </c>
       <c r="D65" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="D66" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>128</v>
@@ -2026,13 +2032,13 @@
       <c r="C67" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="6">
-        <v>3</v>
+      <c r="D67" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>128</v>
@@ -2041,40 +2047,40 @@
         <v>52</v>
       </c>
       <c r="D68" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D69" s="4">
-        <v>1181</v>
+        <v>52</v>
+      </c>
+      <c r="D69" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="D70" s="4">
-        <v>1172</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>128</v>
@@ -2083,12 +2089,12 @@
         <v>155</v>
       </c>
       <c r="D71" s="4">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>128</v>
@@ -2097,60 +2103,60 @@
         <v>155</v>
       </c>
       <c r="D72" s="4">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="D73" s="4">
-        <v>211</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D74" s="6">
-        <v>591</v>
+        <v>54</v>
+      </c>
+      <c r="D74" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D75" s="4">
-        <v>1167</v>
+        <v>107</v>
+      </c>
+      <c r="D75" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="D76" s="4">
         <v>1167</v>
@@ -2158,21 +2164,21 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="D77" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>130</v>
@@ -2181,68 +2187,68 @@
         <v>57</v>
       </c>
       <c r="D78" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D79" s="4">
-        <v>1394</v>
+        <v>819</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D80" s="4">
-        <v>72</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D81" s="4">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D82" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>128</v>
@@ -2251,26 +2257,26 @@
         <v>63</v>
       </c>
       <c r="D83" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D84" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>128</v>
@@ -2279,180 +2285,180 @@
         <v>65</v>
       </c>
       <c r="D85" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D86" s="6">
-        <v>1457</v>
+        <v>65</v>
+      </c>
+      <c r="D86" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D87" s="4">
-        <v>1182</v>
+        <v>112</v>
+      </c>
+      <c r="D87" s="6">
+        <v>1457</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D88" s="6">
-        <v>1030</v>
+        <v>67</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1182</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D89" s="4">
-        <v>1468</v>
+        <v>113</v>
+      </c>
+      <c r="D89" s="6">
+        <v>1030</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>199</v>
+        <v>68</v>
       </c>
       <c r="D90" s="4">
-        <v>51</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="D91" s="4">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D92" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D93" s="4">
-        <v>986</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="D94" s="4">
-        <v>437</v>
+        <v>986</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D95" s="4">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="D96" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D97" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>128</v>
@@ -2461,26 +2467,26 @@
         <v>74</v>
       </c>
       <c r="D98" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D99" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>132</v>
@@ -2489,12 +2495,12 @@
         <v>77</v>
       </c>
       <c r="D100" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>132</v>
@@ -2503,118 +2509,132 @@
         <v>77</v>
       </c>
       <c r="D101" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="D102" s="4">
-        <v>878</v>
+        <v>762</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="D103" s="4">
-        <v>211</v>
+        <v>878</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D104" s="6">
-        <v>202</v>
+        <v>81</v>
+      </c>
+      <c r="D104" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D105" s="6">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D106" s="4">
-        <v>1418</v>
+        <v>117</v>
+      </c>
+      <c r="D106" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>120</v>
+        <v>90</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1418</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D108" s="4">
-        <v>15</v>
+        <v>119</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D109" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C109" s="4" t="s">
+      <c r="B110" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D110" s="4">
         <v>1458</v>
       </c>
     </row>
@@ -2624,7 +2644,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D109">
+  <conditionalFormatting sqref="A2:D110">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E66450-EBBB-49C9-ABE5-500DA035C493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A11B401-27B5-4B03-93F6-7558BF32DB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -596,9 +596,6 @@
     <t>FITA DUPLA FACE - 19mm x 3m</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE) - 1000M</t>
-  </si>
-  <si>
     <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
   </si>
   <si>
@@ -645,6 +642,9 @@
   </si>
   <si>
     <t>S110017</t>
+  </si>
+  <si>
+    <t>FITILHO EMFESTA - 5MMX50M</t>
   </si>
 </sst>
 </file>
@@ -1086,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>127</v>
@@ -1604,13 +1604,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="D37" s="6">
         <v>1449</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>128</v>
@@ -1781,7 +1781,7 @@
         <v>125</v>
       </c>
       <c r="D49" s="4">
-        <v>1157</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1828,7 +1828,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>128</v>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>127</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>128</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>128</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>128</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>128</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>128</v>
@@ -2360,13 +2360,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="D91" s="4">
         <v>51</v>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>128</v>
@@ -2556,7 +2556,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>128</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>127</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>128</v>

--- a/pages/MA_ssoservi_cservico_ssala.xlsx
+++ b/pages/MA_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A11B401-27B5-4B03-93F6-7558BF32DB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B705ECC0-18DF-4881-8D09-463552D5DAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="204">
   <si>
     <t>Complemento</t>
   </si>
@@ -645,6 +645,12 @@
   </si>
   <si>
     <t>FITILHO EMFESTA - 5MMX50M</t>
+  </si>
+  <si>
+    <t>ISOPOR - 3L - 3L</t>
+  </si>
+  <si>
+    <t>S050011</t>
   </si>
 </sst>
 </file>
@@ -1084,11 +1090,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1562,30 +1566,30 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1436</v>
+        <v>102</v>
+      </c>
+      <c r="D34" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="D35" s="6">
-        <v>12</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1604,49 +1608,49 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1449</v>
+        <v>28</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38" s="4">
-        <v>1162</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D39" s="4">
-        <v>1455</v>
+        <v>899</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>128</v>
@@ -1655,12 +1659,12 @@
         <v>31</v>
       </c>
       <c r="D40" s="4">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>128</v>
@@ -1669,12 +1673,12 @@
         <v>31</v>
       </c>
       <c r="D41" s="4">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>128</v>
@@ -1683,54 +1687,54 @@
         <v>31</v>
       </c>
       <c r="D42" s="4">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="4">
-        <v>898</v>
+        <v>135</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1456</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="6">
-        <v>1456</v>
+        <v>141</v>
+      </c>
+      <c r="D44" s="4">
+        <v>750</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="D45" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>128</v>
@@ -1739,91 +1743,91 @@
         <v>36</v>
       </c>
       <c r="D46" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="4">
-        <v>167</v>
+        <v>103</v>
+      </c>
+      <c r="D47" s="6">
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="6">
-        <v>272</v>
+        <v>125</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1469</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="D49" s="4">
-        <v>1469</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D50" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D51" s="4">
-        <v>80</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="D52" s="4">
-        <v>1395</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2402,44 +2406,44 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D94" s="4">
-        <v>986</v>
+        <v>437</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D95" s="4">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="D96" s="4">
-        <v>449</v>
+        <v>986</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2486,21 +2490,21 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="D100" s="4">
-        <v>1127</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>132</v>
@@ -2509,12 +2513,12 @@
         <v>77</v>
       </c>
       <c r="D101" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>132</v>
@@ -2523,105 +2527,105 @@
         <v>77</v>
       </c>
       <c r="D102" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="D103" s="4">
-        <v>878</v>
+        <v>762</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="D104" s="4">
-        <v>211</v>
+        <v>878</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D105" s="6">
-        <v>202</v>
+        <v>81</v>
+      </c>
+      <c r="D105" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D106" s="6">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D107" s="4">
-        <v>1418</v>
+        <v>117</v>
+      </c>
+      <c r="D107" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>120</v>
+        <v>90</v>
+      </c>
+      <c r="D108" s="4">
+        <v>1418</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D109" s="4">
-        <v>15</v>
+        <v>119</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2638,13 +2642,32 @@
         <v>1458</v>
       </c>
     </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D111" s="4">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D111" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D111">
+      <sortCondition ref="A1:A111"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
     <cfRule type="expression" dxfId="1" priority="39">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D110">
+  <conditionalFormatting sqref="A2:D111">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
